--- a/example/Maxwell_Damping_FLAC.xlsx
+++ b/example/Maxwell_Damping_FLAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MaxwellDamping_FLAC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu\Documents\Github\MaxwellDamping_FLAC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F691499D-683D-4959-9187-3929948599A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB63B93-E7C3-4D10-BED5-404695BC561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SingleComponent" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Freq</t>
   </si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>f3</t>
-  </si>
-  <si>
-    <t>real_sum</t>
-  </si>
-  <si>
-    <t>imag_sum</t>
   </si>
 </sst>
 </file>
@@ -2082,231 +2076,231 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FLAC!$Z$2:$Z$75</c:f>
+              <c:f>FLAC!$X$2:$X$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>4.2985275324390233E-3</c:v>
+                  <c:v>1.7040411494462643E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6986959210850521E-3</c:v>
+                  <c:v>1.8613584572546901E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1296764911381377E-3</c:v>
+                  <c:v>2.0303804053355353E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5918568464052186E-3</c:v>
+                  <c:v>2.2111163389259864E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0849646798692477E-3</c:v>
+                  <c:v>2.4032848692249326E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6078691563388157E-3</c:v>
+                  <c:v>2.6062346220193273E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1583634142868818E-3</c:v>
+                  <c:v>2.8188607422277152E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7329426842884831E-3</c:v>
+                  <c:v>3.0395245880023052E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3266018520279372E-3</c:v>
+                  <c:v>3.2659879085278357E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9326869656943166E-3</c:v>
+                  <c:v>3.4953767967951001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.542845283293893E-3</c:v>
+                  <c:v>3.7241938129646761E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0147124644687446E-2</c:v>
+                  <c:v>3.9483973329972236E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0734270658458681E-2</c:v>
+                  <c:v>4.1635635459785686E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1292254584702175E-2</c:v>
+                  <c:v>4.3651370710301729E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1809032831032304E-2</c:v>
+                  <c:v>4.5487606342866825E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2273492164256239E-2</c:v>
+                  <c:v>4.7106546548439938E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2676481374641014E-2</c:v>
+                  <c:v>4.8479986273414002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3011785167775647E-2</c:v>
+                  <c:v>4.9592543357819256E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3276877069018251E-2</c:v>
+                  <c:v>5.0443720881914289E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3473307857042031E-2</c:v>
+                  <c:v>5.1048376349348903E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3606644940166187E-2</c:v>
+                  <c:v>5.1435459859725953E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3685961533934804E-2</c:v>
+                  <c:v>5.1645208117290606E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3722957632562458E-2</c:v>
+                  <c:v>5.1725247025290869E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3730853033073904E-2</c:v>
+                  <c:v>5.1726190748929965E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3723212213859864E-2</c:v>
+                  <c:v>5.1697311244184641E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.371284303017954E-2</c:v>
+                  <c:v>5.1682724333905666E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3710869427276302E-2</c:v>
+                  <c:v>5.1718360797162091E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3726030587831459E-2</c:v>
+                  <c:v>5.1829826822664432E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3764219948254034E-2</c:v>
+                  <c:v>5.20311481333589E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.38282549443488E-2</c:v>
+                  <c:v>5.2324347327798733E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3917862228848221E-2</c:v>
+                  <c:v>5.2699811077441552E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4029867946266232E-2</c:v>
+                  <c:v>5.3137434320904578E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4158590132385452E-2</c:v>
+                  <c:v>5.3608548919744849E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4296431826956944E-2</c:v>
+                  <c:v>5.4078624646132778E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4434662511449689E-2</c:v>
+                  <c:v>5.4510653804213716E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4564349816773365E-2</c:v>
+                  <c:v>5.4869001357008548E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4677367117633362E-2</c:v>
+                  <c:v>5.5123350423553624E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4767366239992526E-2</c:v>
+                  <c:v>5.5252250955545437E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4830582724532448E-2</c:v>
+                  <c:v>5.5245745458078283E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.486634705361284E-2</c:v>
+                  <c:v>5.510663757137764E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4877213842662235E-2</c:v>
+                  <c:v>5.4850181430167982E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4868684733361438E-2</c:v>
+                  <c:v>5.4502247641196933E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4848571500357151E-2</c:v>
+                  <c:v>5.4096282573387902E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4826102479898592E-2</c:v>
+                  <c:v>5.3669546003251897E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.481090280878423E-2</c:v>
+                  <c:v>5.3259151799798586E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4811974077333484E-2</c:v>
+                  <c:v>5.2898360602966134E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.483677034220755E-2</c:v>
+                  <c:v>5.2613431518675258E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4890429600960703E-2</c:v>
+                  <c:v>5.2421190617498808E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4975186798063025E-2</c:v>
+                  <c:v>5.2327362857319468E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5089975000241387E-2</c:v>
+                  <c:v>5.2325661340139079E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5230217684730095E-2</c:v>
+                  <c:v>5.2397629186564515E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5387823530566303E-2</c:v>
+                  <c:v>5.2513262405707459E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5551408221574314E-2</c:v>
+                  <c:v>5.2632475006202412E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5706776158462228E-2</c:v>
+                  <c:v>5.2707466884618706E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5837689317098499E-2</c:v>
+                  <c:v>5.2685994660917529E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5926924087764825E-2</c:v>
+                  <c:v>5.2515416770111581E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5957568911620302E-2</c:v>
+                  <c:v>5.2147204577681835E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5914453745848066E-2</c:v>
+                  <c:v>5.1541428814662255E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.578554396561993E-2</c:v>
+                  <c:v>5.0670613289194137E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5563098706710575E-2</c:v>
+                  <c:v>4.9522359286159445E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.524440599049182E-2</c:v>
+                  <c:v>4.8100311825872835E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.4831969936907635E-2</c:v>
+                  <c:v>4.642333291103197E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4333125544110932E-2</c:v>
+                  <c:v>4.452308436604506E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3759164849935815E-2</c:v>
+                  <c:v>4.2440501776148207E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3124142084392085E-2</c:v>
+                  <c:v>4.022178395138782E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2443562334566867E-2</c:v>
+                  <c:v>3.791450652221192E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1733144471284094E-2</c:v>
+                  <c:v>3.5564326594972065E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.100779791256557E-2</c:v>
+                  <c:v>3.3212542571842953E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.028088595723595E-2</c:v>
+                  <c:v>3.0894574610614657E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.5637861991382609E-3</c:v>
+                  <c:v>2.8639280661945404E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.8657135013243023E-3</c:v>
+                  <c:v>2.6468936625601385E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1937468387169154E-3</c:v>
+                  <c:v>2.4399681002661888E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.5529951527814852E-3</c:v>
+                  <c:v>2.244223733026536E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2596540137486358E-3</c:v>
+                  <c:v>2.1550650676665496E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3055,226 +3049,226 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>4.1599334410649425E-4</c:v>
+                  <c:v>3.1999488008191873E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5759114103550953E-4</c:v>
+                  <c:v>3.5199318541193054E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0334820876620076E-4</c:v>
+                  <c:v>3.871909298201545E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5368030594501636E-4</c:v>
+                  <c:v>4.2590792765001263E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0904471133715183E-4</c:v>
+                  <c:v>4.6849593179780925E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6994435738998957E-4</c:v>
+                  <c:v>5.1534181337691519E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3693237104855975E-4</c:v>
+                  <c:v>5.6687105465273865E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1061706052898658E-4</c:v>
+                  <c:v>6.235515850222975E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9166738995888567E-4</c:v>
+                  <c:v>6.8589799227606609E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8081898709651634E-4</c:v>
+                  <c:v>7.5447614392039732E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0788807326804096E-3</c:v>
+                  <c:v>8.2990825590800743E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1867419832453626E-3</c:v>
+                  <c:v>9.1287844865027893E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3053804823352773E-3</c:v>
+                  <c:v>1.004138832565598E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4358710177591293E-3</c:v>
+                  <c:v>1.1045161675070228E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.579394884609649E-3</c:v>
+                  <c:v>1.214919142007423E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7372502148314671E-3</c:v>
+                  <c:v>1.3363463191011294E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9108632336892911E-3</c:v>
+                  <c:v>1.4698947951456089E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1018005008720747E-3</c:v>
+                  <c:v>1.6167696160554427E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3117821882648127E-3</c:v>
+                  <c:v>1.7782939909729329E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5426964364015201E-3</c:v>
+                  <c:v>1.9559203356934777E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7966148156447807E-3</c:v>
+                  <c:v>2.1512421658806016E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0758088940404348E-3</c:v>
+                  <c:v>2.3660068415695657E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3827678786834954E-3</c:v>
+                  <c:v>2.6021291374488434E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.720217247493125E-3</c:v>
+                  <c:v>2.861705574994712E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0911382185280813E-3</c:v>
+                  <c:v>3.1470293988677561E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.4987878078465646E-3</c:v>
+                  <c:v>3.4606060060358205E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.9467190959490556E-3</c:v>
+                  <c:v>3.8051685353454288E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4388011461256784E-3</c:v>
+                  <c:v>4.1836931893274457E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.979237781640113E-3</c:v>
+                  <c:v>4.5994136781847056E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.5725841150779422E-3</c:v>
+                  <c:v>5.0558339346753424E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.2237593106000541E-3</c:v>
+                  <c:v>5.5567379312308138E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.9380535218133465E-3</c:v>
+                  <c:v>6.1061950167795014E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.7211262532489401E-3</c:v>
+                  <c:v>6.7085586563453399E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.5789925066189045E-3</c:v>
+                  <c:v>7.3684557743222386E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0517991956565957E-2</c:v>
+                  <c:v>8.0907630435122779E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.154473501921901E-2</c:v>
+                  <c:v>8.8805653993992411E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2666018005651454E-2</c:v>
+                  <c:v>9.7430907735780448E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3888697591030919E-2</c:v>
+                  <c:v>1.0683613531562251E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5219512626138125E-2</c:v>
+                  <c:v>1.1707317404721636E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.666483900117419E-2</c:v>
+                  <c:v>1.2819106923980153E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8230361106713836E-2</c:v>
+                  <c:v>1.4023354697472189E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9920641891647106E-2</c:v>
+                  <c:v>1.5323570685882399E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1738573352090746E-2</c:v>
+                  <c:v>1.6721979501608274E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.3684691641163248E-2</c:v>
+                  <c:v>1.8218993570125578E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5756347463432902E-2</c:v>
+                  <c:v>1.9812574971871472E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7946735049110816E-2</c:v>
+                  <c:v>2.1497488499316021E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0243804084498567E-2</c:v>
+                  <c:v>2.3264464680383522E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2629110542612298E-2</c:v>
+                  <c:v>2.5099315802009466E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5076705198749086E-2</c:v>
+                  <c:v>2.6982080922114692E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7552210700131629E-2</c:v>
+                  <c:v>2.8886315923178189E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0012292524278875E-2</c:v>
+                  <c:v>3.077868655713761E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.2404772454284007E-2</c:v>
+                  <c:v>3.2619055734064629E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.4669644662963207E-2</c:v>
+                  <c:v>3.4361265125356324E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.6741209284931327E-2</c:v>
+                  <c:v>3.5954776373024112E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.8551415376333916E-2</c:v>
+                  <c:v>3.7347242597179947E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.0034299892396911E-2</c:v>
+                  <c:v>3.8487922994151484E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.1131147416134198E-2</c:v>
+                  <c:v>3.9331651858564784E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.1795738694677601E-2</c:v>
+                  <c:v>3.9842875918982786E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.1998891522401822E-2</c:v>
+                  <c:v>3.9999147324924489E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1731505998993441E-2</c:v>
+                  <c:v>3.9793466153071909E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1005541675973452E-2</c:v>
+                  <c:v>3.9235032058441137E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9852736025540696E-2</c:v>
+                  <c:v>3.8348258481185164E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.8321313495444745E-2</c:v>
+                  <c:v>3.7170241150342134E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.64712987364947E-2</c:v>
+                  <c:v>3.5747152874226702E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4369235326663183E-2</c:v>
+                  <c:v>3.4130181020510159E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.2083092637964614E-2</c:v>
+                  <c:v>3.2371609721511249E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.9677961008196906E-2</c:v>
+                  <c:v>3.0521508467843787E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.721287316648416E-2</c:v>
+                  <c:v>2.862528705114167E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.4738832855027317E-2</c:v>
+                  <c:v>2.6722179119251798E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.2297936872687449E-2</c:v>
+                  <c:v>2.4844566825144208E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9923365233411901E-2</c:v>
+                  <c:v>2.3017973256470706E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.7639978132355032E-2</c:v>
+                  <c:v>2.1261521640273111E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5465275670711413E-2</c:v>
+                  <c:v>1.9588673592854943E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4470588235294112E-2</c:v>
+                  <c:v>1.8823529411764711E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,12 +3803,12 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3843,7 +3837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3877,7 +3871,7 @@
         <v>2.8548123980424141E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3910,7 +3904,7 @@
         <v>3.1397558330139214E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3943,7 +3937,7 @@
         <v>3.4530158689520555E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H5">
         <f t="shared" si="5"/>
         <v>0.13310000000000002</v>
@@ -3969,7 +3963,7 @@
         <v>3.7973654982698126E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H6">
         <f t="shared" si="5"/>
         <v>0.14641000000000004</v>
@@ -3995,7 +3989,7 @@
         <v>4.1758356941498974E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H7">
         <f t="shared" si="5"/>
         <v>0.16105100000000006</v>
@@ -4021,7 +4015,7 @@
         <v>4.5917348753374016E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H8">
         <f t="shared" si="5"/>
         <v>0.17715610000000007</v>
@@ -4047,7 +4041,7 @@
         <v>5.0486682581827522E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H9">
         <f t="shared" si="5"/>
         <v>0.19487171000000009</v>
@@ -4073,7 +4067,7 @@
         <v>5.5505564254786175E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H10">
         <f t="shared" si="5"/>
         <v>0.21435888100000011</v>
@@ -4099,7 +4093,7 @@
         <v>6.101652169883464E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H11">
         <f t="shared" si="5"/>
         <v>0.23579476910000013</v>
@@ -4125,7 +4119,7 @@
         <v>6.706554311079152E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H12">
         <f t="shared" si="5"/>
         <v>0.25937424601000014</v>
@@ -4151,7 +4145,7 @@
         <v>7.370216716541189E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H13">
         <f t="shared" si="5"/>
         <v>0.28531167061100016</v>
@@ -4177,7 +4171,7 @@
         <v>8.0979501475463064E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H14">
         <f t="shared" si="5"/>
         <v>0.31384283767210019</v>
@@ -4203,7 +4197,7 @@
         <v>8.895413772104151E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H15">
         <f t="shared" si="5"/>
         <v>0.34522712143931022</v>
@@ -4229,7 +4223,7 @@
         <v>9.7685921992005879E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H16">
         <f t="shared" si="5"/>
         <v>0.37974983358324127</v>
@@ -4255,7 +4249,7 @@
         <v>1.0723752658645653E-2</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H17">
         <f t="shared" si="5"/>
         <v>0.41772481694156544</v>
@@ -4281,7 +4275,7 @@
         <v>1.1767375449057283E-2</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H18">
         <f t="shared" si="5"/>
         <v>0.45949729863572203</v>
@@ -4307,7 +4301,7 @@
         <v>1.2906048991974801E-2</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H19">
         <f t="shared" si="5"/>
         <v>0.50544702849929424</v>
@@ -4333,7 +4327,7 @@
         <v>1.4146318788014884E-2</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H20">
         <f t="shared" si="5"/>
         <v>0.55599173134922375</v>
@@ -4359,7 +4353,7 @@
         <v>1.5494477362045808E-2</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H21">
         <f t="shared" si="5"/>
         <v>0.61159090448414621</v>
@@ -4385,7 +4379,7 @@
         <v>1.6956280107952238E-2</v>
       </c>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H22">
         <f t="shared" si="5"/>
         <v>0.67274999493256094</v>
@@ -4411,7 +4405,7 @@
         <v>1.8536570168195779E-2</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H23">
         <f t="shared" si="5"/>
         <v>0.74002499442581704</v>
@@ -4437,7 +4431,7 @@
         <v>2.023879472463223E-2</v>
       </c>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H24">
         <f t="shared" si="5"/>
         <v>0.81402749386839879</v>
@@ -4463,7 +4457,7 @@
         <v>2.2064396286733616E-2</v>
       </c>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H25">
         <f t="shared" si="5"/>
         <v>0.89543024325523879</v>
@@ -4489,7 +4483,7 @@
         <v>2.4012067109742258E-2</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H26">
         <f t="shared" si="5"/>
         <v>0.98497326758076276</v>
@@ -4515,7 +4509,7 @@
         <v>2.6076864570538989E-2</v>
       </c>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H27">
         <f t="shared" si="5"/>
         <v>1.0834705943388392</v>
@@ -4541,7 +4535,7 @@
         <v>2.8249202324725522E-2</v>
       </c>
     </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H28">
         <f t="shared" si="5"/>
         <v>1.1918176537727232</v>
@@ -4567,7 +4561,7 @@
         <v>3.0513758497323008E-2</v>
       </c>
     </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H29">
         <f t="shared" si="5"/>
         <v>1.3109994191499956</v>
@@ -4593,7 +4587,7 @@
         <v>3.2848379370609408E-2</v>
       </c>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H30">
         <f t="shared" si="5"/>
         <v>1.4420993610649953</v>
@@ -4619,7 +4613,7 @@
         <v>3.5223104290388441E-2</v>
       </c>
     </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H31">
         <f t="shared" si="5"/>
         <v>1.5863092971714949</v>
@@ -4645,7 +4639,7 @@
         <v>3.7599490179988752E-2</v>
       </c>
     </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H32">
         <f t="shared" si="5"/>
         <v>1.7449402268886445</v>
@@ -4671,7 +4665,7 @@
         <v>3.9930461642817688E-2</v>
       </c>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H33">
         <f t="shared" si="5"/>
         <v>1.919434249577509</v>
@@ -4697,7 +4691,7 @@
         <v>4.2160937709889559E-2</v>
       </c>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H34">
         <f t="shared" si="5"/>
         <v>2.1113776745352602</v>
@@ -4723,7 +4717,7 @@
         <v>4.4229465843651061E-2</v>
       </c>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H35">
         <f t="shared" si="5"/>
         <v>2.3225154419887866</v>
@@ -4749,7 +4743,7 @@
         <v>4.6071004996515258E-2</v>
       </c>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H36">
         <f t="shared" si="5"/>
         <v>2.5547669861876656</v>
@@ -4775,7 +4769,7 @@
         <v>4.7620830451049902E-2</v>
       </c>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H37">
         <f t="shared" si="5"/>
         <v>2.8102436848064323</v>
@@ -4801,7 +4795,7 @@
         <v>4.881929645620315E-2</v>
       </c>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H38">
         <f t="shared" si="5"/>
         <v>3.0912680532870755</v>
@@ -4827,7 +4821,7 @@
         <v>4.9616935068545115E-2</v>
       </c>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H39">
         <f t="shared" si="5"/>
         <v>3.4003948586157833</v>
@@ -4853,7 +4847,7 @@
         <v>4.9979168279198391E-2</v>
       </c>
     </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H40">
         <f t="shared" si="5"/>
         <v>3.7404343444773618</v>
@@ -4879,7 +4873,7 @@
         <v>4.9889849840955527E-2</v>
       </c>
     </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H41">
         <f t="shared" si="5"/>
         <v>4.1144777789250986</v>
@@ -4905,7 +4899,7 @@
         <v>4.9352986942076862E-2</v>
       </c>
     </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H42">
         <f t="shared" si="5"/>
         <v>4.5259255568176089</v>
@@ -4931,7 +4925,7 @@
         <v>4.8392308946150674E-2</v>
       </c>
     </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H43">
         <f t="shared" si="5"/>
         <v>4.97851811249937</v>
@@ -4957,7 +4951,7 @@
         <v>4.7048767544273409E-2</v>
       </c>
     </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H44">
         <f t="shared" si="5"/>
         <v>5.4763699237493073</v>
@@ -4983,7 +4977,7 @@
         <v>4.5376444074320954E-2</v>
       </c>
     </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H45">
         <f t="shared" si="5"/>
         <v>6.0240069161242387</v>
@@ -5009,7 +5003,7 @@
         <v>4.3437590776951591E-2</v>
       </c>
     </row>
-    <row r="46" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H46">
         <f t="shared" si="5"/>
         <v>6.6264076077366632</v>
@@ -5035,7 +5029,7 @@
         <v>4.1297587045785497E-2</v>
       </c>
     </row>
-    <row r="47" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H47">
         <f t="shared" si="5"/>
         <v>7.28904836851033</v>
@@ -5061,7 +5055,7 @@
         <v>3.9020466591157855E-2</v>
       </c>
     </row>
-    <row r="48" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H48">
         <f t="shared" si="5"/>
         <v>8.0179532053613638</v>
@@ -5087,7 +5081,7 @@
         <v>3.6665437506802734E-2</v>
       </c>
     </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H49">
         <f t="shared" si="5"/>
         <v>8.8197485258975004</v>
@@ -5113,7 +5107,7 @@
         <v>3.4284560032972464E-2</v>
       </c>
     </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H50">
         <f t="shared" si="5"/>
         <v>9.7017233784872516</v>
@@ -5139,7 +5133,7 @@
         <v>3.1921533173985404E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H51">
         <f t="shared" si="5"/>
         <v>10.671895716335978</v>
@@ -5165,7 +5159,7 @@
         <v>2.9611404042322542E-2</v>
       </c>
     </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H52">
         <f t="shared" si="5"/>
         <v>11.739085287969576</v>
@@ -5191,7 +5185,7 @@
         <v>2.7380954257265513E-2</v>
       </c>
     </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H53">
         <f t="shared" si="5"/>
         <v>12.912993816766535</v>
@@ -5217,7 +5211,7 @@
         <v>2.5249518148223599E-2</v>
       </c>
     </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H54">
         <f t="shared" si="5"/>
         <v>14.204293198443191</v>
@@ -5243,7 +5237,7 @@
         <v>2.3230023974805773E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H55">
         <f t="shared" si="5"/>
         <v>15.624722518287511</v>
@@ -5269,7 +5263,7 @@
         <v>2.1330100660018791E-2</v>
       </c>
     </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H56">
         <f t="shared" si="5"/>
         <v>17.187194770116264</v>
@@ -5295,7 +5289,7 @@
         <v>1.9553143956145876E-2</v>
       </c>
     </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H57">
         <f t="shared" si="5"/>
         <v>18.905914247127892</v>
@@ -5321,7 +5315,7 @@
         <v>1.7899279552802749E-2</v>
       </c>
     </row>
-    <row r="58" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H58">
         <f t="shared" si="5"/>
         <v>20.796505671840684</v>
@@ -5347,7 +5341,7 @@
         <v>1.6366193534370816E-2</v>
       </c>
     </row>
-    <row r="59" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H59">
         <f t="shared" si="5"/>
         <v>22.876156239024755</v>
@@ -5373,7 +5367,7 @@
         <v>1.494982307733279E-2</v>
       </c>
     </row>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H60">
         <f t="shared" si="5"/>
         <v>25.163771862927234</v>
@@ -5399,7 +5393,7 @@
         <v>1.364491412855692E-2</v>
       </c>
     </row>
-    <row r="61" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H61">
         <f t="shared" si="5"/>
         <v>27.68014904921996</v>
@@ -5425,7 +5419,7 @@
         <v>1.2445460228682469E-2</v>
       </c>
     </row>
-    <row r="62" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H62">
         <f t="shared" si="5"/>
         <v>30.448163954141958</v>
@@ -5451,7 +5445,7 @@
         <v>1.1345039683756102E-2</v>
       </c>
     </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H63">
         <f t="shared" si="5"/>
         <v>33.492980349556156</v>
@@ -5477,7 +5471,7 @@
         <v>1.0337068583271141E-2</v>
       </c>
     </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H64">
         <f t="shared" si="5"/>
         <v>36.842278384511772</v>
@@ -5503,7 +5497,7 @@
         <v>9.414985910337445E-3</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H65">
         <f t="shared" si="5"/>
         <v>40.526506222962951</v>
@@ -5529,7 +5523,7 @@
         <v>8.5723849984003526E-3</v>
       </c>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H66">
         <f t="shared" si="5"/>
         <v>44.579156845259249</v>
@@ -5555,7 +5549,7 @@
         <v>7.803103366643525E-3</v>
       </c>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H67">
         <f t="shared" si="5"/>
         <v>49.037072529785178</v>
@@ -5581,7 +5575,7 @@
         <v>7.1012808064177119E-3</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H68">
         <f t="shared" ref="H68:H74" si="11">H67*1.1</f>
         <v>53.940779782763698</v>
@@ -5607,7 +5601,7 @@
         <v>6.4613936440694551E-3</v>
       </c>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H69">
         <f t="shared" si="11"/>
         <v>59.33485776104007</v>
@@ -5633,7 +5627,7 @@
         <v>5.8782714319886463E-3</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H70">
         <f t="shared" si="11"/>
         <v>65.268343537144077</v>
@@ -5659,7 +5653,7 @@
         <v>5.3471009276460551E-3</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H71">
         <f t="shared" si="11"/>
         <v>71.795177890858497</v>
@@ -5685,7 +5679,7 @@
         <v>4.8634210899962038E-3</v>
       </c>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H72">
         <f t="shared" si="11"/>
         <v>78.974695679944347</v>
@@ -5711,7 +5705,7 @@
         <v>4.423111921400334E-3</v>
       </c>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H73">
         <f t="shared" si="11"/>
         <v>86.872165247938781</v>
@@ -5737,7 +5731,7 @@
         <v>4.0223792750987584E-3</v>
       </c>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H74">
         <f t="shared" si="11"/>
         <v>95.559381772732664</v>
@@ -5763,7 +5757,7 @@
         <v>3.6577371984698949E-3</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H75">
         <v>100</v>
       </c>
@@ -5788,7 +5782,7 @@
         <v>3.4957177457614428E-3</v>
       </c>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>10</v>
       </c>
@@ -5796,7 +5790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H77" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H78">
         <v>0.1</v>
       </c>
@@ -5841,7 +5835,7 @@
         <v>2.8548123980424141E-3</v>
       </c>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H79">
         <v>1</v>
       </c>
@@ -5866,7 +5860,7 @@
         <v>2.6415094339622646E-2</v>
       </c>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H80">
         <v>5</v>
       </c>
@@ -5891,7 +5885,7 @@
         <v>4.6979865771812082E-2</v>
       </c>
     </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H81">
         <v>10</v>
       </c>
@@ -5924,20 +5918,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4BF1BF-5474-4EB3-8E4B-A4A363E079FB}">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="14" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5987,16 +5981,10 @@
         <v>9</v>
       </c>
       <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6014,11 +6002,11 @@
         <v>0.62831853071795862</v>
       </c>
       <c r="J2">
-        <f>$B$3*$B$4*I2/(1+$B$4^2*I2^2)</f>
+        <f t="shared" ref="J2:J33" si="0">$B$3*$B$4*I2/(1+$B$4^2*I2^2)</f>
         <v>2.977870691651216E-2</v>
       </c>
       <c r="K2">
-        <f>1+($B$3*$B$4^2*I2^2)/(1+$B$4^2*I2^2)</f>
+        <f t="shared" ref="K2:K33" si="1">1+($B$3*$B$4^2*I2^2)/(1+$B$4^2*I2^2)</f>
         <v>1.0055147789991119</v>
       </c>
       <c r="L2">
@@ -6047,30 +6035,22 @@
       </c>
       <c r="T2">
         <f>$B$15*$B$16*S2/(1+$B$16^2*S2^2)</f>
-        <v>8.3198918400534242E-4</v>
+        <v>6.3999127268152939E-4</v>
       </c>
       <c r="U2">
         <f>1+($B$15*$B$16^2*S2^2)/(1+$B$16^2*S2^2)</f>
-        <v>1.0000029997984214</v>
+        <v>1.0000023633467066</v>
       </c>
       <c r="V2">
         <f>T2/U2/2</f>
-        <v>4.1599334410649425E-4</v>
+        <v>3.1999488008191873E-4</v>
       </c>
       <c r="X2">
-        <f>1+K2+P2+U2</f>
-        <v>4.0056200098236872</v>
-      </c>
-      <c r="Y2">
-        <f>J2+O2+T2</f>
-        <v>3.4436535793431582E-2</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:Z66" si="0">Y2/2/X2</f>
-        <v>4.2985275324390233E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <f>SUM(L2,Q2,V2)</f>
+        <v>1.7040411494462643E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6083,67 +6063,59 @@
         <v>0.11000000000000001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="1">H3*PI()*2</f>
+        <f t="shared" ref="I3:I66" si="2">H3*PI()*2</f>
         <v>0.69115038378975457</v>
       </c>
       <c r="J3">
-        <f>$B$3*$B$4*I3/(1+$B$4^2*I3^2)</f>
+        <f t="shared" si="0"/>
         <v>3.253005903341602E-2</v>
       </c>
       <c r="K3">
-        <f>1+($B$3*$B$4^2*I3^2)/(1+$B$4^2*I3^2)</f>
+        <f t="shared" si="1"/>
         <v>1.0066267382123186</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="2">J3/K3/2</f>
+        <f t="shared" ref="L3:L66" si="3">J3/K3/2</f>
         <v>1.6157954979015642E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="3">I3</f>
+        <f t="shared" ref="N3:N66" si="4">I3</f>
         <v>0.69115038378975457</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="4">$B$9*$B$10*N3/(1+$B$10^2*N3^2)</f>
+        <f t="shared" ref="O3:O66" si="5">$B$9*$B$10*N3/(1+$B$10^2*N3^2)</f>
         <v>4.2077931759880761E-3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="5">1+($B$9*$B$10^2*N3^2)/(1+$B$10^2*N3^2)</f>
+        <f t="shared" ref="P3:P66" si="6">1+($B$9*$B$10^2*N3^2)/(1+$B$10^2*N3^2)</f>
         <v>1.0001236810095631</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="6">O3/P3/2</f>
+        <f t="shared" ref="Q3:Q66" si="7">O3/P3/2</f>
         <v>2.1036364081193281E-3</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="7">I3</f>
+        <f t="shared" ref="S3:S66" si="8">I3</f>
         <v>0.69115038378975457</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="8">$B$15*$B$16*S3/(1+$B$16^2*S3^2)</f>
-        <v>9.1518560395041203E-4</v>
+        <f t="shared" ref="T3:T66" si="9">$B$15*$B$16*S3/(1+$B$16^2*S3^2)</f>
+        <v>7.0398838397237994E-4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U66" si="9">1+($B$15*$B$16^2*S3^2)/(1+$B$16^2*S3^2)</f>
-        <v>1.0000036297461807</v>
+        <f t="shared" ref="U3:U66" si="10">1+($B$15*$B$16^2*S3^2)/(1+$B$16^2*S3^2)</f>
+        <v>1.000002859641326</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="10">T3/U3/2</f>
-        <v>4.5759114103550953E-4</v>
+        <f t="shared" ref="V3:V66" si="11">T3/U3/2</f>
+        <v>3.5199318541193054E-4</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X66" si="11">1+K3+P3+U3</f>
-        <v>4.0067540489680624</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y66" si="12">J3+O3+T3</f>
-        <v>3.7653037813354502E-2</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>4.6986959210850521E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" ref="X3:X66" si="12">SUM(L3,Q3,V3)</f>
+        <v>1.8613584572546901E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6156,199 +6128,175 @@
         <v>0.12100000000000002</v>
       </c>
       <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.76026542216873005</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>3.548613812927888E-2</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
+        <v>1.0079518171804756</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>1.7603092491337322E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
         <v>0.76026542216873005</v>
       </c>
-      <c r="J4">
-        <f>$B$3*$B$4*I4/(1+$B$4^2*I4^2)</f>
-        <v>3.548613812927888E-2</v>
-      </c>
-      <c r="K4">
-        <f>1+($B$3*$B$4^2*I4^2)/(1+$B$4^2*I4^2)</f>
-        <v>1.0079518171804756</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>1.7603092491337322E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>4.6277335942258181E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>1.0001496268977306</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="7"/>
+        <v>2.3135206321978777E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="8"/>
         <v>0.76026542216873005</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="4"/>
-        <v>4.6277335942258181E-3</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
-        <v>1.0001496268977306</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="6"/>
-        <v>2.3135206321978777E-3</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="7"/>
-        <v>0.76026542216873005</v>
-      </c>
       <c r="T4">
-        <f t="shared" si="8"/>
-        <v>1.0067008389212932E-3</v>
+        <f t="shared" si="9"/>
+        <v>7.7438453912080966E-4</v>
       </c>
       <c r="U4">
-        <f t="shared" si="9"/>
-        <v>1.0000043919783708</v>
+        <f t="shared" si="10"/>
+        <v>1.0000034601540149</v>
       </c>
       <c r="V4">
-        <f t="shared" si="10"/>
-        <v>5.0334820876620076E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.871909298201545E-4</v>
       </c>
       <c r="X4">
-        <f t="shared" si="11"/>
-        <v>4.0081058360565773</v>
-      </c>
-      <c r="Y4">
         <f t="shared" si="12"/>
-        <v>4.1120572562425989E-2</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>5.1296764911381377E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2.0303804053355353E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H5">
         <f t="shared" si="13"/>
         <v>0.13310000000000002</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.83629196438560305</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.8646717871933391E-2</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
+        <v>1.0095260520439224</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1.9141020577769077E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
         <v>0.83629196438560305</v>
       </c>
-      <c r="J5">
-        <f>$B$3*$B$4*I5/(1+$B$4^2*I5^2)</f>
-        <v>3.8646717871933391E-2</v>
-      </c>
-      <c r="K5">
-        <f>1+($B$3*$B$4^2*I5^2)/(1+$B$4^2*I5^2)</f>
-        <v>1.0095260520439224</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>1.9141020577769077E-2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>5.0893908257431805E-3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>1.0001810088501419</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>2.5442348838407751E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="8"/>
         <v>0.83629196438560305</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="4"/>
-        <v>5.0893908257431805E-3</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
-        <v>1.0001810088501419</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="6"/>
-        <v>2.5442348838407751E-3</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="7"/>
-        <v>0.83629196438560305</v>
-      </c>
       <c r="T5">
-        <f t="shared" si="8"/>
-        <v>1.1073664967061771E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.5181942165607526E-4</v>
       </c>
       <c r="U5">
-        <f t="shared" si="9"/>
-        <v>1.0000053142725875</v>
+        <f t="shared" si="10"/>
+        <v>1.0000041867688043</v>
       </c>
       <c r="V5">
-        <f t="shared" si="10"/>
-        <v>5.5368030594501636E-4</v>
+        <f t="shared" si="11"/>
+        <v>4.2590792765001263E-4</v>
       </c>
       <c r="X5">
-        <f t="shared" si="11"/>
-        <v>4.0097123751666519</v>
-      </c>
-      <c r="Y5">
         <f t="shared" si="12"/>
-        <v>4.4843475194382747E-2</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>5.5918568464052186E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2.2111163389259864E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H6">
         <f t="shared" si="13"/>
         <v>0.14641000000000004</v>
       </c>
       <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.91992116082416342</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4.2006127869699164E-2</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
+        <v>1.011389526472444</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>2.0766542845371088E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
         <v>0.91992116082416342</v>
       </c>
-      <c r="J6">
-        <f>$B$3*$B$4*I6/(1+$B$4^2*I6^2)</f>
-        <v>4.2006127869699164E-2</v>
-      </c>
-      <c r="K6">
-        <f>1+($B$3*$B$4^2*I6^2)/(1+$B$4^2*I6^2)</f>
-        <v>1.011389526472444</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>2.0766542845371088E-2</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>5.5968450617268012E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>1.0002189626177487</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>2.7978099150804312E-3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
         <v>0.91992116082416342</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
-        <v>5.5968450617268012E-3</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
-        <v>1.0002189626177487</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="6"/>
-        <v>2.7978099150804312E-3</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="7"/>
-        <v>0.91992116082416342</v>
-      </c>
       <c r="T6">
-        <f t="shared" si="8"/>
-        <v>1.2180972552800888E-3</v>
+        <f t="shared" si="9"/>
+        <v>9.3699661036318604E-4</v>
       </c>
       <c r="U6">
-        <f t="shared" si="9"/>
-        <v>1.0000064302387324</v>
+        <f t="shared" si="10"/>
+        <v>1.0000050659645532</v>
       </c>
       <c r="V6">
-        <f t="shared" si="10"/>
-        <v>6.0904471133715183E-4</v>
+        <f t="shared" si="11"/>
+        <v>4.6849593179780925E-4</v>
       </c>
       <c r="X6">
-        <f t="shared" si="11"/>
-        <v>4.0116149193289248</v>
-      </c>
-      <c r="Y6">
         <f t="shared" si="12"/>
-        <v>4.8821070186706055E-2</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>6.0849646798692477E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2.4032848692249326E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6360,67 +6308,59 @@
         <v>0.16105100000000006</v>
       </c>
       <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1.01191327690658</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4.5551651142258953E-2</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
+        <v>1.0135859442215998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>2.24705420403403E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
         <v>1.01191327690658</v>
       </c>
-      <c r="J7">
-        <f>$B$3*$B$4*I7/(1+$B$4^2*I7^2)</f>
-        <v>4.5551651142258953E-2</v>
-      </c>
-      <c r="K7">
-        <f>1+($B$3*$B$4^2*I7^2)/(1+$B$4^2*I7^2)</f>
-        <v>1.0135859442215998</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>2.24705420403403E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>6.1545543951595219E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>1.0002648597663926</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>3.0764623664760607E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
         <v>1.01191327690658</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
-        <v>6.1545543951595219E-3</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
-        <v>1.0002648597663926</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>3.0764623664760607E-3</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>1.01191327690658</v>
-      </c>
       <c r="T7">
-        <f t="shared" si="8"/>
-        <v>1.3398991398421887E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.0306899446171783E-3</v>
       </c>
       <c r="U7">
-        <f t="shared" si="9"/>
-        <v>1.0000077805433352</v>
+        <f t="shared" si="10"/>
+        <v>1.0000061297794822</v>
       </c>
       <c r="V7">
-        <f t="shared" si="10"/>
-        <v>6.6994435738998957E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.1534181337691519E-4</v>
       </c>
       <c r="X7">
-        <f t="shared" si="11"/>
-        <v>4.0138585845313273</v>
-      </c>
-      <c r="Y7">
         <f t="shared" si="12"/>
-        <v>5.3046104677260668E-2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>6.6078691563388157E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2.6062346220193273E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6432,67 +6372,59 @@
         <v>0.17715610000000007</v>
       </c>
       <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.1131046045972379</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4.9261750462313153E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
+        <v>1.0161617441954878</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>2.423912863464197E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
         <v>1.1131046045972379</v>
       </c>
-      <c r="J8">
-        <f>$B$3*$B$4*I8/(1+$B$4^2*I8^2)</f>
-        <v>4.9261750462313153E-2</v>
-      </c>
-      <c r="K8">
-        <f>1+($B$3*$B$4^2*I8^2)/(1+$B$4^2*I8^2)</f>
-        <v>1.0161617441954878</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>2.423912863464197E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>6.767382743029334E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>1.000320355955453</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>3.3826077329824449E-3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
         <v>1.1131046045972379</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
-        <v>6.767382743029334E-3</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
-        <v>1.000320355955453</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>3.3826077329824449E-3</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
-        <v>1.1131046045972379</v>
-      </c>
       <c r="T8">
-        <f t="shared" si="8"/>
-        <v>1.4738786176357504E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.1337505182458555E-3</v>
       </c>
       <c r="U8">
-        <f t="shared" si="9"/>
-        <v>1.0000094143907745</v>
+        <f t="shared" si="10"/>
+        <v>1.0000074169780846</v>
       </c>
       <c r="V8">
-        <f t="shared" si="10"/>
-        <v>7.3693237104855975E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.6687105465273865E-4</v>
       </c>
       <c r="X8">
-        <f t="shared" si="11"/>
-        <v>4.0164915145417153</v>
-      </c>
-      <c r="Y8">
         <f t="shared" si="12"/>
-        <v>5.7503011822978241E-2</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>7.1583634142868818E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2.8188607422277152E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6505,67 +6437,59 @@
         <v>0.19487171000000009</v>
       </c>
       <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.2244150650569618</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5.3104227732868249E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
+        <v>1.0191646181852907</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>2.6052821489930079E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
         <v>1.2244150650569618</v>
       </c>
-      <c r="J9">
-        <f>$B$3*$B$4*I9/(1+$B$4^2*I9^2)</f>
-        <v>5.3104227732868249E-2</v>
-      </c>
-      <c r="K9">
-        <f>1+($B$3*$B$4^2*I9^2)/(1+$B$4^2*I9^2)</f>
-        <v>1.0191646181852907</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>2.6052821489930079E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>7.4406273556332616E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>1.0003874487839413</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>3.718872805070674E-3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
         <v>1.2244150650569618</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>7.4406273556332616E-3</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
-        <v>1.0003874487839413</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>3.718872805070674E-3</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="7"/>
-        <v>1.2244150650569618</v>
-      </c>
       <c r="T9">
-        <f t="shared" si="8"/>
-        <v>1.621252589046924E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.2471143621256373E-3</v>
       </c>
       <c r="U9">
-        <f t="shared" si="9"/>
-        <v>1.00001139131524</v>
+        <f t="shared" si="10"/>
+        <v>1.000008974462828</v>
       </c>
       <c r="V9">
-        <f t="shared" si="10"/>
-        <v>8.1061706052898658E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.235515850222975E-4</v>
       </c>
       <c r="X9">
-        <f t="shared" si="11"/>
-        <v>4.0195634582844715</v>
-      </c>
-      <c r="Y9">
         <f t="shared" si="12"/>
-        <v>6.2166107677548439E-2</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>7.7329426842884831E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>3.0395245880023052E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6578,271 +6502,239 @@
         <v>0.21435888100000011</v>
       </c>
       <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.3468565715626581</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>5.7034493121812115E-2</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
+        <v>1.0226412992676672</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>2.7885874139180374E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
         <v>1.3468565715626581</v>
       </c>
-      <c r="J10">
-        <f>$B$3*$B$4*I10/(1+$B$4^2*I10^2)</f>
-        <v>5.7034493121812115E-2</v>
-      </c>
-      <c r="K10">
-        <f>1+($B$3*$B$4^2*I10^2)/(1+$B$4^2*I10^2)</f>
-        <v>1.0226412992676672</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>2.7885874139180374E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>8.1800448477527751E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>1.000468546952441</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>4.088106953821921E-3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
         <v>1.3468565715626581</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="4"/>
-        <v>8.1800448477527751E-3</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
-        <v>1.000468546952441</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>4.088106953821921E-3</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="7"/>
-        <v>1.3468565715626581</v>
-      </c>
       <c r="T10">
-        <f t="shared" si="8"/>
-        <v>1.7833593602426267E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.3718108808599512E-3</v>
       </c>
       <c r="U10">
-        <f t="shared" si="9"/>
-        <v>1.0000137833485514</v>
+        <f t="shared" si="10"/>
+        <v>1.0000108589819381</v>
       </c>
       <c r="V10">
-        <f t="shared" si="10"/>
-        <v>8.9166738995888567E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.8589799227606609E-4</v>
       </c>
       <c r="X10">
-        <f t="shared" si="11"/>
-        <v>4.0231236295686594</v>
-      </c>
-      <c r="Y10">
         <f t="shared" si="12"/>
-        <v>6.6997897329807515E-2</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>8.3266018520279372E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>3.2659879085278357E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H11">
         <f t="shared" si="13"/>
         <v>0.23579476910000013</v>
       </c>
       <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.4815422287189239</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>6.0994206228890367E-2</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
+        <v>1.0266345294111745</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>2.9705900435607571E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
         <v>1.4815422287189239</v>
       </c>
-      <c r="J11">
-        <f>$B$3*$B$4*I11/(1+$B$4^2*I11^2)</f>
-        <v>6.0994206228890367E-2</v>
-      </c>
-      <c r="K11">
-        <f>1+($B$3*$B$4^2*I11^2)/(1+$B$4^2*I11^2)</f>
-        <v>1.0266345294111745</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>2.9705900435607571E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>8.9918742632402425E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>1.0005665527386838</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>4.4933913884230318E-3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
         <v>1.4815422287189239</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
-        <v>8.9918742632402425E-3</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
-        <v>1.0005665527386838</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>4.4933913884230318E-3</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="7"/>
-        <v>1.4815422287189239</v>
-      </c>
       <c r="T11">
-        <f t="shared" si="8"/>
-        <v>1.9616706896899748E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.5089721142595471E-3</v>
       </c>
       <c r="U11">
-        <f t="shared" si="9"/>
-        <v>1.0000166776425481</v>
+        <f t="shared" si="10"/>
+        <v>1.0000131391952629</v>
       </c>
       <c r="V11">
-        <f t="shared" si="10"/>
-        <v>9.8081898709651634E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.5447614392039732E-4</v>
       </c>
       <c r="X11">
-        <f t="shared" si="11"/>
-        <v>4.0272177597924061</v>
-      </c>
-      <c r="Y11">
         <f t="shared" si="12"/>
-        <v>7.1947751181820577E-2</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="0"/>
-        <v>8.9326869656943166E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>3.4953767967951001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="H12">
         <f t="shared" si="13"/>
         <v>0.25937424601000014</v>
       </c>
       <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1.6296964515908163</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6.4910636814593151E-2</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
+        <v>1.0311792022464128</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>3.1473984673656155E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
         <v>1.6296964515908163</v>
       </c>
-      <c r="J12">
-        <f>$B$3*$B$4*I12/(1+$B$4^2*I12^2)</f>
-        <v>6.4910636814593151E-2</v>
-      </c>
-      <c r="K12">
-        <f>1+($B$3*$B$4^2*I12^2)/(1+$B$4^2*I12^2)</f>
-        <v>1.0311792022464128</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>3.1473984673656155E-2</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>9.8828551273828034E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>1.0006849600341341</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>4.9380452000825975E-3</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
         <v>1.6296964515908163</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
-        <v>9.8828551273828034E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
-        <v>1.0006849600341341</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>4.9380452000825975E-3</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="7"/>
-        <v>1.6296964515908163</v>
-      </c>
       <c r="T12">
-        <f t="shared" si="8"/>
-        <v>2.1578050082129924E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.6598428998663309E-3</v>
       </c>
       <c r="U12">
-        <f t="shared" si="9"/>
-        <v>1.0000201796412034</v>
+        <f t="shared" si="10"/>
+        <v>1.0000158981731584</v>
       </c>
       <c r="V12">
-        <f t="shared" si="10"/>
-        <v>1.0788807326804096E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.2990825590800743E-4</v>
       </c>
       <c r="X12">
-        <f t="shared" si="11"/>
-        <v>4.0318843419217503</v>
-      </c>
-      <c r="Y12">
         <f t="shared" si="12"/>
-        <v>7.6951296950188958E-2</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="0"/>
-        <v>9.542845283293893E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>3.7241938129646761E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5.1999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H13">
         <f t="shared" si="13"/>
         <v>0.28531167061100016</v>
       </c>
       <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1.792666096749898</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>6.8697153111834247E-2</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="1"/>
+        <v>1.0362978209629832</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>3.3145468282465937E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
         <v>1.792666096749898</v>
       </c>
-      <c r="J13">
-        <f>$B$3*$B$4*I13/(1+$B$4^2*I13^2)</f>
-        <v>6.8697153111834247E-2</v>
-      </c>
-      <c r="K13">
-        <f>1+($B$3*$B$4^2*I13^2)/(1+$B$4^2*I13^2)</f>
-        <v>1.0362978209629832</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>3.3145468282465937E-2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>1.0860237714340656E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>1.0008279704164031</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>5.4256265988560249E-3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
         <v>1.792666096749898</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="4"/>
-        <v>1.0860237714340656E-2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
-        <v>1.0008279704164031</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>5.4256265988560249E-3</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="7"/>
-        <v>1.792666096749898</v>
-      </c>
       <c r="T13">
-        <f t="shared" si="8"/>
-        <v>2.3735419196527956E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.8257920183251477E-3</v>
       </c>
       <c r="U13">
-        <f t="shared" si="9"/>
-        <v>1.0000244169174466</v>
+        <f t="shared" si="10"/>
+        <v>1.0000192364189568</v>
       </c>
       <c r="V13">
-        <f t="shared" si="10"/>
-        <v>1.1867419832453626E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.1287844865027893E-4</v>
       </c>
       <c r="X13">
-        <f t="shared" si="11"/>
-        <v>4.0371502082968327</v>
-      </c>
-      <c r="Y13">
         <f t="shared" si="12"/>
-        <v>8.1930932745827689E-2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="0"/>
-        <v>1.0147124644687446E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>3.9483973329972236E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -6854,4103 +6746,3607 @@
         <v>0.31384283767210019</v>
       </c>
       <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.9719327064248879</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>7.2255246149452584E-2</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
+        <v>1.0419956090830937</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>3.4671569399910306E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
         <v>1.9719327064248879</v>
       </c>
-      <c r="J14">
-        <f>$B$3*$B$4*I14/(1+$B$4^2*I14^2)</f>
-        <v>7.2255246149452584E-2</v>
-      </c>
-      <c r="K14">
-        <f>1+($B$3*$B$4^2*I14^2)/(1+$B$4^2*I14^2)</f>
-        <v>1.0419956090830937</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>3.4671569399910306E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>1.1931781817409927E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>1.0010006299016292</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>5.9599272273097833E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
         <v>1.9719327064248879</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
-        <v>1.1931781817409927E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="5"/>
-        <v>1.0010006299016292</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>5.9599272273097833E-3</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>1.9719327064248879</v>
-      </c>
       <c r="T14">
-        <f t="shared" si="8"/>
-        <v>2.6108380965059038E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.0083244088470267E-3</v>
       </c>
       <c r="U14">
-        <f t="shared" si="9"/>
-        <v>1.0000295438136211</v>
+        <f t="shared" si="10"/>
+        <v>1.0000232755244169</v>
       </c>
       <c r="V14">
-        <f t="shared" si="10"/>
-        <v>1.3053804823352773E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.004138832565598E-3</v>
       </c>
       <c r="X14">
-        <f t="shared" si="11"/>
-        <v>4.0430257827983445</v>
-      </c>
-      <c r="Y14">
         <f t="shared" si="12"/>
-        <v>8.6797866063368409E-2</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>1.0734270658458681E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+        <v>4.1635635459785686E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
         <f>8*B13^2+4*B13*SQRT(4*B13^2+1)</f>
-        <v>0.2307538387065301</v>
+        <v>0.17331118341100102</v>
       </c>
       <c r="H15">
         <f t="shared" si="13"/>
         <v>0.34522712143931022</v>
       </c>
       <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2.1691259770673765</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>7.5478399053604484E-2</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
+        <v>1.0482558383061662</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>3.6001897769330313E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
         <v>2.1691259770673765</v>
       </c>
-      <c r="J15">
-        <f>$B$3*$B$4*I15/(1+$B$4^2*I15^2)</f>
-        <v>7.5478399053604484E-2</v>
-      </c>
-      <c r="K15">
-        <f>1+($B$3*$B$4^2*I15^2)/(1+$B$4^2*I15^2)</f>
-        <v>1.0482558383061662</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>3.6001897769330313E-2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1.3105739109418247E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>1.0012089890764153</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>6.5449567734643943E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
         <v>2.1691259770673765</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
-        <v>1.3105739109418247E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="5"/>
-        <v>1.0012089890764153</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>6.5449567734643943E-3</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="7"/>
-        <v>2.1691259770673765</v>
-      </c>
       <c r="T15">
-        <f t="shared" si="8"/>
-        <v>2.8718446918340455E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.2090945470866134E-3</v>
       </c>
       <c r="U15">
-        <f t="shared" si="9"/>
-        <v>1.0000357470533625</v>
+        <f t="shared" si="10"/>
+        <v>1.0000281625902807</v>
       </c>
       <c r="V15">
-        <f t="shared" si="10"/>
-        <v>1.4358710177591293E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1045161675070228E-3</v>
       </c>
       <c r="X15">
-        <f t="shared" si="11"/>
-        <v>4.0495005744359442</v>
-      </c>
-      <c r="Y15">
         <f t="shared" si="12"/>
-        <v>9.1455982854856774E-2</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="0"/>
-        <v>1.1292254584702175E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+        <v>4.3651370710301729E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
         <f>1/(2*PI()*B14*SQRT(1+B15))</f>
-        <v>5.7384489633935457E-3</v>
+        <v>5.8772412474535941E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="13"/>
         <v>0.37974983358324127</v>
       </c>
       <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.3860385747741146</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>7.825788147074858E-2</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
+        <v>1.0550361387359175</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>3.708777291956681E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
         <v>2.3860385747741146</v>
       </c>
-      <c r="J16">
-        <f>$B$3*$B$4*I16/(1+$B$4^2*I16^2)</f>
-        <v>7.825788147074858E-2</v>
-      </c>
-      <c r="K16">
-        <f>1+($B$3*$B$4^2*I16^2)/(1+$B$4^2*I16^2)</f>
-        <v>1.0550361387359175</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>3.708777291956681E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>1.4390812667567209E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1.0014602891670303</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>7.1849142812925914E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
         <v>2.3860385747741146</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
-        <v>1.4390812667567209E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
-        <v>1.0014602891670303</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>7.1849142812925914E-3</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="7"/>
-        <v>2.3860385747741146</v>
-      </c>
       <c r="T16">
-        <f t="shared" si="8"/>
-        <v>3.1589263948605881E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.429921082142857E-3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="9"/>
-        <v>1.0000432525274778</v>
+        <f t="shared" si="10"/>
+        <v>1.0000340755714303</v>
       </c>
       <c r="V16">
-        <f t="shared" si="10"/>
-        <v>1.579394884609649E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.214919142007423E-3</v>
       </c>
       <c r="X16">
-        <f t="shared" si="11"/>
-        <v>4.0565396804304257</v>
-      </c>
-      <c r="Y16">
         <f t="shared" si="12"/>
-        <v>9.5807620533176374E-2</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="0"/>
-        <v>1.1809032831032304E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.5487606342866825E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H17">
         <f t="shared" si="13"/>
         <v>0.41772481694156544</v>
       </c>
       <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2.6246424322515263</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>8.0490193548607897E-2</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="1"/>
+        <v>1.0622666537011436</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>3.7886058678470426E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
         <v>2.6246424322515263</v>
       </c>
-      <c r="J17">
-        <f>$B$3*$B$4*I17/(1+$B$4^2*I17^2)</f>
-        <v>8.0490193548607897E-2</v>
-      </c>
-      <c r="K17">
-        <f>1+($B$3*$B$4^2*I17^2)/(1+$B$4^2*I17^2)</f>
-        <v>1.0622666537011436</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>3.7886058678470426E-2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>1.5796085362313264E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>1.0017631761427113</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>7.8841415508683829E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
         <v>2.6246424322515263</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>1.5796085362313264E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="5"/>
-        <v>1.0017631761427113</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>7.8841415508683829E-3</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="7"/>
-        <v>2.6246424322515263</v>
-      </c>
       <c r="T17">
-        <f t="shared" si="8"/>
-        <v>3.4746822624251755E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.6728028326224E-3</v>
       </c>
       <c r="U17">
-        <f t="shared" si="9"/>
-        <v>1.0000523334982747</v>
+        <f t="shared" si="10"/>
+        <v>1.0000412297390902</v>
       </c>
       <c r="V17">
-        <f t="shared" si="10"/>
-        <v>1.7372502148314671E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.3363463191011294E-3</v>
       </c>
       <c r="X17">
-        <f t="shared" si="11"/>
-        <v>4.0640821633421291</v>
-      </c>
-      <c r="Y17">
         <f t="shared" si="12"/>
-        <v>9.9760961173346333E-2</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="0"/>
-        <v>1.2273492164256239E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.7106546548439938E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H18">
         <f t="shared" si="13"/>
         <v>0.45949729863572203</v>
       </c>
       <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2.8871066754766792</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>8.2085456066927145E-2</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="1"/>
+        <v>1.0698508114545215</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>3.8363038653645272E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
         <v>2.8871066754766792</v>
       </c>
-      <c r="J18">
-        <f>$B$3*$B$4*I18/(1+$B$4^2*I18^2)</f>
-        <v>8.2085456066927145E-2</v>
-      </c>
-      <c r="K18">
-        <f>1+($B$3*$B$4^2*I18^2)/(1+$B$4^2*I18^2)</f>
-        <v>1.0698508114545215</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>3.8363038653645272E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>1.7330906537556551E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>1.0021279439976079</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>8.6470528246231203E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
         <v>2.8871066754766792</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="4"/>
-        <v>1.7330906537556551E-2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="5"/>
-        <v>1.0021279439976079</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>8.6470528246231203E-3</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="7"/>
-        <v>2.8871066754766792</v>
-      </c>
       <c r="T18">
-        <f t="shared" si="8"/>
-        <v>3.8219684610749705E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.9399362431416875E-3</v>
       </c>
       <c r="U18">
-        <f t="shared" si="9"/>
-        <v>1.0000633205171678</v>
+        <f t="shared" si="10"/>
+        <v>1.0000498854921298</v>
       </c>
       <c r="V18">
-        <f t="shared" si="10"/>
-        <v>1.9108632336892911E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.4698947951456089E-3</v>
       </c>
       <c r="X18">
-        <f t="shared" si="11"/>
-        <v>4.0720420759692972</v>
-      </c>
-      <c r="Y18">
         <f t="shared" si="12"/>
-        <v>0.10323833106555866</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="0"/>
-        <v>1.2676481374641014E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.8479986273414002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H19">
         <f t="shared" si="13"/>
         <v>0.50544702849929424</v>
       </c>
       <c r="I19">
+        <f t="shared" si="2"/>
+        <v>3.175817343024347</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>8.2975654650875669E-2</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="1"/>
+        <v>1.0776691608312321</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>3.8497740153793841E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
         <v>3.175817343024347</v>
       </c>
-      <c r="J19">
-        <f>$B$3*$B$4*I19/(1+$B$4^2*I19^2)</f>
-        <v>8.2975654650875669E-2</v>
-      </c>
-      <c r="K19">
-        <f>1+($B$3*$B$4^2*I19^2)/(1+$B$4^2*I19^2)</f>
-        <v>1.0776691608312321</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
-        <v>3.8497740153793841E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>1.9004723735693559E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>1.0025668066747184</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>9.4780335879699733E-3</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
         <v>3.175817343024347</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="4"/>
-        <v>1.9004723735693559E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="5"/>
-        <v>1.0025668066747184</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="6"/>
-        <v>9.4780335879699733E-3</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="7"/>
-        <v>3.175817343024347</v>
-      </c>
       <c r="T19">
-        <f t="shared" si="8"/>
-        <v>4.2039230539548961E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.2337344014157551E-3</v>
       </c>
       <c r="U19">
-        <f t="shared" si="9"/>
-        <v>1.0000766134108858</v>
+        <f t="shared" si="10"/>
+        <v>1.0000603577970948</v>
       </c>
       <c r="V19">
-        <f t="shared" si="10"/>
-        <v>2.1018005008720747E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.6167696160554427E-3</v>
       </c>
       <c r="X19">
-        <f t="shared" si="11"/>
-        <v>4.0803125809168366</v>
-      </c>
-      <c r="Y19">
         <f t="shared" si="12"/>
-        <v>0.10618430144052413</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="0"/>
-        <v>1.3011785167775647E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.9592543357819256E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H20">
         <f t="shared" si="13"/>
         <v>0.55599173134922375</v>
       </c>
       <c r="I20">
+        <f t="shared" si="2"/>
+        <v>3.4933990773267825</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>8.3121438794382732E-2</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="1"/>
+        <v>1.0855861838987468</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>3.8284127058370664E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
         <v>3.4933990773267825</v>
       </c>
-      <c r="J20">
-        <f>$B$3*$B$4*I20/(1+$B$4^2*I20^2)</f>
-        <v>8.3121438794382732E-2</v>
-      </c>
-      <c r="K20">
-        <f>1+($B$3*$B$4^2*I20^2)/(1+$B$4^2*I20^2)</f>
-        <v>1.0855861838987468</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>3.8284127058370664E-2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="3"/>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>2.0826843204867787E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>1.0030941953687169</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>1.0381299832570691E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="8"/>
         <v>3.4933990773267825</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="4"/>
-        <v>2.0826843204867787E-2</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="5"/>
-        <v>1.0030941953687169</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>1.0381299832570691E-2</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="7"/>
-        <v>3.4933990773267825</v>
-      </c>
       <c r="T20">
-        <f t="shared" si="8"/>
-        <v>4.6239929613626435E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.5568477110076188E-3</v>
       </c>
       <c r="U20">
-        <f t="shared" si="9"/>
-        <v>1.0000926957641585</v>
+        <f t="shared" si="10"/>
+        <v>1.0000730275936014</v>
       </c>
       <c r="V20">
-        <f t="shared" si="10"/>
-        <v>2.3117821882648127E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.7782939909729329E-3</v>
       </c>
       <c r="X20">
-        <f t="shared" si="11"/>
-        <v>4.0887730750316225</v>
-      </c>
-      <c r="Y20">
         <f t="shared" si="12"/>
-        <v>0.10857227496061317</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="0"/>
-        <v>1.3276877069018251E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.0443720881914289E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H21">
         <f t="shared" si="13"/>
         <v>0.61159090448414621</v>
       </c>
       <c r="I21">
+        <f t="shared" si="2"/>
+        <v>3.8427389850594613</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>8.251626792776294E-2</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="1"/>
+        <v>1.0934593751302961</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>3.773174834132742E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
         <v>3.8427389850594613</v>
       </c>
-      <c r="J21">
-        <f>$B$3*$B$4*I21/(1+$B$4^2*I21^2)</f>
-        <v>8.251626792776294E-2</v>
-      </c>
-      <c r="K21">
-        <f>1+($B$3*$B$4^2*I21^2)/(1+$B$4^2*I21^2)</f>
-        <v>1.0934593751302961</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>3.773174834132742E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="3"/>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>2.2806099735780648E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>1.003727073768957</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>1.1360707672328002E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="8"/>
         <v>3.8427389850594613</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="4"/>
-        <v>2.2806099735780648E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
-        <v>1.003727073768957</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="6"/>
-        <v>1.1360707672328002E-2</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="7"/>
-        <v>3.8427389850594613</v>
-      </c>
       <c r="T21">
-        <f t="shared" si="8"/>
-        <v>5.0859632118877892E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9121863042989686E-3</v>
       </c>
       <c r="U21">
-        <f t="shared" si="9"/>
-        <v>1.0001121524135921</v>
+        <f t="shared" si="10"/>
+        <v>1.0000883555699345</v>
       </c>
       <c r="V21">
-        <f t="shared" si="10"/>
-        <v>2.5426964364015201E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.9559203356934777E-3</v>
       </c>
       <c r="X21">
-        <f t="shared" si="11"/>
-        <v>4.0972986013128452</v>
-      </c>
-      <c r="Y21">
         <f t="shared" si="12"/>
-        <v>0.11040833087543137</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="0"/>
-        <v>1.3473307857042031E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1048376349348903E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H22">
         <f t="shared" si="13"/>
         <v>0.67274999493256094</v>
       </c>
       <c r="I22">
+        <f t="shared" si="2"/>
+        <v>4.2270128835654077</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>8.1187115339887511E-2</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="1"/>
+        <v>1.101149348906977</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>3.6864715681154181E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
         <v>4.2270128835654077</v>
       </c>
-      <c r="J22">
-        <f>$B$3*$B$4*I22/(1+$B$4^2*I22^2)</f>
-        <v>8.1187115339887511E-2</v>
-      </c>
-      <c r="K22">
-        <f>1+($B$3*$B$4^2*I22^2)/(1+$B$4^2*I22^2)</f>
-        <v>1.101149348906977</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>3.6864715681154181E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="3"/>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>2.4950413359256528E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>1.0044852576923105</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>1.2419502012691175E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="8"/>
         <v>4.2270128835654077</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
-        <v>2.4950413359256528E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
-        <v>1.0044852576923105</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>1.2419502012691175E-2</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="7"/>
-        <v>4.2270128835654077</v>
-      </c>
       <c r="T22">
-        <f t="shared" si="8"/>
-        <v>5.5939885798126357E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.3029442621519958E-3</v>
       </c>
       <c r="U22">
-        <f t="shared" si="9"/>
-        <v>1.0001356905711198</v>
+        <f t="shared" si="10"/>
+        <v>1.0001068987950514</v>
       </c>
       <c r="V22">
-        <f t="shared" si="10"/>
-        <v>2.7966148156447807E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1512421658806016E-3</v>
       </c>
       <c r="X22">
-        <f t="shared" si="11"/>
-        <v>4.1057702971704071</v>
-      </c>
-      <c r="Y22">
         <f t="shared" si="12"/>
-        <v>0.11173151727895668</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="0"/>
-        <v>1.3606644940166187E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1435459859725953E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H23">
         <f t="shared" si="13"/>
         <v>0.74002499442581704</v>
       </c>
       <c r="I23">
+        <f t="shared" si="2"/>
+        <v>4.649714171921949</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>7.9191592277330802E-2</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="1"/>
+        <v>1.1085294847667251</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>3.5719208810217437E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
         <v>4.649714171921949</v>
       </c>
-      <c r="J23">
-        <f>$B$3*$B$4*I23/(1+$B$4^2*I23^2)</f>
-        <v>7.9191592277330802E-2</v>
-      </c>
-      <c r="K23">
-        <f>1+($B$3*$B$4^2*I23^2)/(1+$B$4^2*I23^2)</f>
-        <v>1.1085294847667251</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>3.5719208810217437E-2</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="3"/>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>2.7266208214015892E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>1.0053917169711077</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>1.3559992465503597E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="8"/>
         <v>4.649714171921949</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>2.7266208214015892E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="5"/>
-        <v>1.0053917169711077</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>1.3559992465503597E-2</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="7"/>
-        <v>4.649714171921949</v>
-      </c>
       <c r="T23">
-        <f t="shared" si="8"/>
-        <v>6.152627670376362E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.7326256782069783E-3</v>
       </c>
       <c r="U23">
-        <f t="shared" si="9"/>
-        <v>1.0001641653188287</v>
+        <f t="shared" si="10"/>
+        <v>1.0001293307899821</v>
       </c>
       <c r="V23">
-        <f t="shared" si="10"/>
-        <v>3.0758088940404348E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.3660068415695657E-3</v>
       </c>
       <c r="X23">
-        <f t="shared" si="11"/>
-        <v>4.1140853670566617</v>
-      </c>
-      <c r="Y23">
         <f t="shared" si="12"/>
-        <v>0.11261042816172305</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="0"/>
-        <v>1.3685961533934804E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1645208117290606E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H24">
         <f t="shared" si="13"/>
         <v>0.81402749386839879</v>
       </c>
       <c r="I24">
+        <f t="shared" si="2"/>
+        <v>5.1146855891141438</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>7.6612048036308333E-2</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="1"/>
+        <v>1.1154937342123969</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>3.4339972375730499E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
         <v>5.1146855891141438</v>
       </c>
-      <c r="J24">
-        <f>$B$3*$B$4*I24/(1+$B$4^2*I24^2)</f>
-        <v>7.6612048036308333E-2</v>
-      </c>
-      <c r="K24">
-        <f>1+($B$3*$B$4^2*I24^2)/(1+$B$4^2*I24^2)</f>
-        <v>1.1154937342123969</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>3.4339972375730499E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>2.9757668478585551E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>1.0064728259018254</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>1.4783145512111526E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="8"/>
         <v>5.1146855891141438</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="4"/>
-        <v>2.9757668478585551E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="5"/>
-        <v>1.0064728259018254</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>1.4783145512111526E-2</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="7"/>
-        <v>5.1146855891141438</v>
-      </c>
       <c r="T24">
-        <f t="shared" si="8"/>
-        <v>6.7668794628817754E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.2050725630003033E-3</v>
       </c>
       <c r="U24">
-        <f t="shared" si="9"/>
-        <v>1.000198610363314</v>
+        <f t="shared" si="10"/>
+        <v>1.0001564657362498</v>
       </c>
       <c r="V24">
-        <f t="shared" si="10"/>
-        <v>3.3827678786834954E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.6021291374488434E-3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="11"/>
-        <v>4.1221651704775359</v>
-      </c>
-      <c r="Y24">
         <f t="shared" si="12"/>
-        <v>0.11313659597777566</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="0"/>
-        <v>1.3722957632562458E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1725247025290869E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H25">
         <f t="shared" si="13"/>
         <v>0.89543024325523879</v>
       </c>
       <c r="I25">
+        <f t="shared" si="2"/>
+        <v>5.6261541480255595</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>7.354772826785147E-2</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="1"/>
+        <v>1.1219616522209912</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>3.2776400210407938E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
         <v>5.6261541480255595</v>
       </c>
-      <c r="J25">
-        <f>$B$3*$B$4*I25/(1+$B$4^2*I25^2)</f>
-        <v>7.354772826785147E-2</v>
-      </c>
-      <c r="K25">
-        <f>1+($B$3*$B$4^2*I25^2)/(1+$B$4^2*I25^2)</f>
-        <v>1.1219616522209912</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>3.2776400210407938E-2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="3"/>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>3.2425809183061823E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>1.0077585137253173</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>1.6088084963527313E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="8"/>
         <v>5.6261541480255595</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
-        <v>3.2425809183061823E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
-        <v>1.0077585137253173</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>1.6088084963527313E-2</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="7"/>
-        <v>5.6261541480255595</v>
-      </c>
       <c r="T25">
-        <f t="shared" si="8"/>
-        <v>7.4422222462066081E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.7244945210594709E-3</v>
       </c>
       <c r="U25">
-        <f t="shared" si="9"/>
-        <v>1.0002402751104875</v>
+        <f t="shared" si="10"/>
+        <v>1.0001892876541028</v>
       </c>
       <c r="V25">
-        <f t="shared" si="10"/>
-        <v>3.720217247493125E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.861705574994712E-3</v>
       </c>
       <c r="X25">
-        <f t="shared" si="11"/>
-        <v>4.129960441056796</v>
-      </c>
-      <c r="Y25">
         <f t="shared" si="12"/>
-        <v>0.11341575969711989</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="0"/>
-        <v>1.3730853033073904E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1726190748929965E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H26">
         <f t="shared" si="13"/>
         <v>0.98497326758076276</v>
       </c>
       <c r="I26">
+        <f t="shared" si="2"/>
+        <v>6.1887695628281154</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>7.0106294901409544E-2</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="1"/>
+        <v>1.1278803266192237</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>3.1078782583055763E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
         <v>6.1887695628281154</v>
       </c>
-      <c r="J26">
-        <f>$B$3*$B$4*I26/(1+$B$4^2*I26^2)</f>
-        <v>7.0106294901409544E-2</v>
-      </c>
-      <c r="K26">
-        <f>1+($B$3*$B$4^2*I26^2)/(1+$B$4^2*I26^2)</f>
-        <v>1.1278803266192237</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
-        <v>3.1078782583055763E-2</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>3.5267348126948435E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>1.0092822486942143</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>1.7471499262261127E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="8"/>
         <v>6.1887695628281154</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
-        <v>3.5267348126948435E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
-        <v>1.0092822486942143</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>1.7471499262261127E-2</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="7"/>
-        <v>6.1887695628281154</v>
-      </c>
       <c r="T26">
-        <f t="shared" si="8"/>
-        <v>8.1846547738210033E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.295500046198583E-3</v>
       </c>
       <c r="U26">
-        <f t="shared" si="9"/>
-        <v>1.0002906693245011</v>
+        <f t="shared" si="10"/>
+        <v>1.0002289855416651</v>
       </c>
       <c r="V26">
-        <f t="shared" si="10"/>
-        <v>4.0911382185280813E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.1470293988677561E-3</v>
       </c>
       <c r="X26">
-        <f t="shared" si="11"/>
-        <v>4.1374532446379391</v>
-      </c>
-      <c r="Y26">
         <f t="shared" si="12"/>
-        <v>0.11355829780217898</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="0"/>
-        <v>1.3723212213859864E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1697311244184641E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H27">
         <f t="shared" si="13"/>
         <v>1.0834705943388392</v>
       </c>
       <c r="I27">
+        <f t="shared" si="2"/>
+        <v>6.8076465191109286</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>6.6395909122066929E-2</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="1"/>
+        <v>1.1332234660570182</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>2.9295152770303742E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
         <v>6.8076465191109286</v>
       </c>
-      <c r="J27">
-        <f>$B$3*$B$4*I27/(1+$B$4^2*I27^2)</f>
-        <v>6.6395909122066929E-2</v>
-      </c>
-      <c r="K27">
-        <f>1+($B$3*$B$4^2*I27^2)/(1+$B$4^2*I27^2)</f>
-        <v>1.1332234660570182</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="2"/>
-        <v>2.9295152770303742E-2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="3"/>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>3.8273381797876621E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>1.011080769431018</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>1.8926965557566101E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="8"/>
         <v>6.8076465191109286</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
-        <v>3.8273381797876621E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
-        <v>1.011080769431018</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>1.8926965557566101E-2</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="7"/>
-        <v>6.8076465191109286</v>
-      </c>
       <c r="T27">
-        <f t="shared" si="8"/>
-        <v>9.0007393150739762E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.9231291576926342E-3</v>
       </c>
       <c r="U27">
-        <f t="shared" si="9"/>
-        <v>1.0003516168705855</v>
+        <f t="shared" si="10"/>
+        <v>1.0002769956501332</v>
       </c>
       <c r="V27">
-        <f t="shared" si="10"/>
-        <v>4.4987878078465646E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.4606060060358205E-3</v>
       </c>
       <c r="X27">
-        <f t="shared" si="11"/>
-        <v>4.1446558523586212</v>
-      </c>
-      <c r="Y27">
         <f t="shared" si="12"/>
-        <v>0.11367003023501752</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="0"/>
-        <v>1.371284303017954E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1682724333905666E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H28">
         <f t="shared" si="13"/>
         <v>1.1918176537727232</v>
       </c>
       <c r="I28">
+        <f t="shared" si="2"/>
+        <v>7.4884111710220216</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>6.2518743389333081E-2</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="1"/>
+        <v>1.1379883215364679</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>2.746897406861025E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
         <v>7.4884111710220216</v>
       </c>
-      <c r="J28">
-        <f>$B$3*$B$4*I28/(1+$B$4^2*I28^2)</f>
-        <v>6.2518743389333081E-2</v>
-      </c>
-      <c r="K28">
-        <f>1+($B$3*$B$4^2*I28^2)/(1+$B$4^2*I28^2)</f>
-        <v>1.1379883215364679</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="2"/>
-        <v>2.746897406861025E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="3"/>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>4.1427896262985597E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>1.0131934582059985</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>2.0444218193206416E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="8"/>
         <v>7.4884111710220216</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
-        <v>4.1427896262985597E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
-        <v>1.0131934582059985</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>2.0444218193206416E-2</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="7"/>
-        <v>7.4884111710220216</v>
-      </c>
       <c r="T28">
-        <f t="shared" si="8"/>
-        <v>9.8976460721365758E-3</v>
+        <f t="shared" si="9"/>
+        <v>7.6128869314916565E-3</v>
       </c>
       <c r="U28">
-        <f t="shared" si="9"/>
-        <v>1.0004253203140148</v>
+        <f t="shared" si="10"/>
+        <v>1.0003350522817995</v>
       </c>
       <c r="V28">
-        <f t="shared" si="10"/>
-        <v>4.9467190959490556E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.8051685353454288E-3</v>
       </c>
       <c r="X28">
-        <f t="shared" si="11"/>
-        <v>4.1516071000564807</v>
-      </c>
-      <c r="Y28">
         <f t="shared" si="12"/>
-        <v>0.11384428572445525</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="0"/>
-        <v>1.3710869427276302E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1718360797162091E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H29">
         <f t="shared" si="13"/>
         <v>1.3109994191499956</v>
       </c>
       <c r="I29">
+        <f t="shared" si="2"/>
+        <v>8.2372522881242247</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>5.8566359968115503E-2</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="1"/>
+        <v>1.1421912949559967</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>2.5637719455028674E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
         <v>8.2372522881242247</v>
       </c>
-      <c r="J29">
-        <f>$B$3*$B$4*I29/(1+$B$4^2*I29^2)</f>
-        <v>5.8566359968115503E-2</v>
-      </c>
-      <c r="K29">
-        <f>1+($B$3*$B$4^2*I29^2)/(1+$B$4^2*I29^2)</f>
-        <v>1.1421912949559967</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="2"/>
-        <v>2.5637719455028674E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="3"/>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>4.4706186358332352E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>1.0156612374733289</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>2.200841417830831E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="8"/>
         <v>8.2372522881242247</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="4"/>
-        <v>4.4706186358332352E-2</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="5"/>
-        <v>1.0156612374733289</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>2.200841417830831E-2</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="7"/>
-        <v>8.2372522881242247</v>
-      </c>
       <c r="T29">
-        <f t="shared" si="8"/>
-        <v>1.0883198149197531E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.3707772514239401E-3</v>
       </c>
       <c r="U29">
-        <f t="shared" si="9"/>
-        <v>1.0005144384576516</v>
+        <f t="shared" si="10"/>
+        <v>1.0004052487378494</v>
       </c>
       <c r="V29">
-        <f t="shared" si="10"/>
-        <v>5.4388011461256784E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.1836931893274457E-3</v>
       </c>
       <c r="X29">
-        <f t="shared" si="11"/>
-        <v>4.158366970886977</v>
-      </c>
-      <c r="Y29">
         <f t="shared" si="12"/>
-        <v>0.11415574447564539</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="0"/>
-        <v>1.3726030587831459E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1829826822664432E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H30">
         <f t="shared" si="13"/>
         <v>1.4420993610649953</v>
       </c>
       <c r="I30">
+        <f t="shared" si="2"/>
+        <v>9.0609775169366475</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>5.4617000063915296E-2</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="1"/>
+        <v>1.145863054608834</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>2.3832254580613926E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
         <v>9.0609775169366475</v>
       </c>
-      <c r="J30">
-        <f>$B$3*$B$4*I30/(1+$B$4^2*I30^2)</f>
-        <v>5.4617000063915296E-2</v>
-      </c>
-      <c r="K30">
-        <f>1+($B$3*$B$4^2*I30^2)/(1+$B$4^2*I30^2)</f>
-        <v>1.145863054608834</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="2"/>
-        <v>2.3832254580613926E-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="3"/>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>4.8073314407955932E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>1.0185248713845159</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>2.3599479874560268E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="8"/>
         <v>9.0609775169366475</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="4"/>
-        <v>4.8073314407955932E-2</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
-        <v>1.0185248713845159</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>2.3599479874560268E-2</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="7"/>
-        <v>9.0609775169366475</v>
-      </c>
       <c r="T30">
-        <f t="shared" si="8"/>
-        <v>1.1965915878612954E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.2033357965004715E-3</v>
       </c>
       <c r="U30">
-        <f t="shared" si="9"/>
-        <v>1.0006221792479615</v>
+        <f t="shared" si="10"/>
+        <v>1.0004901103104125</v>
       </c>
       <c r="V30">
-        <f t="shared" si="10"/>
-        <v>5.979237781640113E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.5994136781847056E-3</v>
       </c>
       <c r="X30">
-        <f t="shared" si="11"/>
-        <v>4.1650101052413113</v>
-      </c>
-      <c r="Y30">
         <f t="shared" si="12"/>
-        <v>0.11465623035048418</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="0"/>
-        <v>1.3764219948254034E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.20311481333589E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H31">
         <f t="shared" si="13"/>
         <v>1.5863092971714949</v>
       </c>
       <c r="I31">
+        <f t="shared" si="2"/>
+        <v>9.9670752686303121</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>5.0734546948075811E-2</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="1"/>
+        <v>1.1490438065386164</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>2.2076854972530917E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
         <v>9.9670752686303121</v>
       </c>
-      <c r="J31">
-        <f>$B$3*$B$4*I31/(1+$B$4^2*I31^2)</f>
-        <v>5.0734546948075811E-2</v>
-      </c>
-      <c r="K31">
-        <f>1+($B$3*$B$4^2*I31^2)/(1+$B$4^2*I31^2)</f>
-        <v>1.1490438065386164</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="2"/>
-        <v>2.2076854972530917E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>5.1482810743626782E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>1.0218225788093227</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>2.5191658420592473E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="8"/>
         <v>9.9670752686303121</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
-        <v>5.1482810743626782E-2</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
-        <v>1.0218225788093227</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>2.5191658420592473E-2</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="7"/>
-        <v>9.9670752686303121</v>
-      </c>
       <c r="T31">
-        <f t="shared" si="8"/>
-        <v>1.3155058797479486E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.0117660867868992E-2</v>
       </c>
       <c r="U31">
-        <f t="shared" si="9"/>
-        <v>1.0007524108592929</v>
+        <f t="shared" si="10"/>
+        <v>1.000592681503758</v>
       </c>
       <c r="V31">
-        <f t="shared" si="10"/>
-        <v>6.5725841150779422E-3</v>
+        <f t="shared" si="11"/>
+        <v>5.0558339346753424E-3</v>
       </c>
       <c r="X31">
-        <f t="shared" si="11"/>
-        <v>4.1716187962072313</v>
-      </c>
-      <c r="Y31">
         <f t="shared" si="12"/>
-        <v>0.11537241648918208</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="0"/>
-        <v>1.38282549443488E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2324347327798733E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H32">
         <f t="shared" si="13"/>
         <v>1.7449402268886445</v>
       </c>
       <c r="I32">
+        <f t="shared" si="2"/>
+        <v>10.963782795493344</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>4.6968779222158037E-2</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="1"/>
+        <v>1.1517791459929179</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>2.0389663845522883E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
         <v>10.963782795493344</v>
       </c>
-      <c r="J32">
-        <f>$B$3*$B$4*I32/(1+$B$4^2*I32^2)</f>
-        <v>4.6968779222158037E-2</v>
-      </c>
-      <c r="K32">
-        <f>1+($B$3*$B$4^2*I32^2)/(1+$B$4^2*I32^2)</f>
-        <v>1.1517791459929179</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="2"/>
-        <v>2.0389663845522883E-2</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="3"/>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>5.4875893604688565E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>1.0255869259114885</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>2.6753409300687855E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="8"/>
         <v>10.963782795493344</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
-        <v>5.4875893604688565E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
-        <v>1.0255869259114885</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>2.6753409300687855E-2</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="7"/>
-        <v>10.963782795493344</v>
-      </c>
       <c r="T32">
-        <f t="shared" si="8"/>
-        <v>1.4460662889379302E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.1121440112369058E-2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="9"/>
-        <v>1.0009097941676923</v>
+        <f t="shared" si="10"/>
+        <v>1.0007166299730161</v>
       </c>
       <c r="V32">
-        <f t="shared" si="10"/>
-        <v>7.2237593106000541E-3</v>
+        <f t="shared" si="11"/>
+        <v>5.5567379312308138E-3</v>
       </c>
       <c r="X32">
-        <f t="shared" si="11"/>
-        <v>4.1782758660720987</v>
-      </c>
-      <c r="Y32">
         <f t="shared" si="12"/>
-        <v>0.11630533571622591</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="0"/>
-        <v>1.3917862228848221E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2699811077441552E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H33">
         <f t="shared" si="13"/>
         <v>1.919434249577509</v>
       </c>
       <c r="I33">
+        <f t="shared" si="2"/>
+        <v>12.060161075042679</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>4.3356496719484036E-2</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="1"/>
+        <v>1.1541166998533765</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>1.8783411038499058E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
         <v>12.060161075042679</v>
       </c>
-      <c r="J33">
-        <f>$B$3*$B$4*I33/(1+$B$4^2*I33^2)</f>
-        <v>4.3356496719484036E-2</v>
-      </c>
-      <c r="K33">
-        <f>1+($B$3*$B$4^2*I33^2)/(1+$B$4^2*I33^2)</f>
-        <v>1.1541166998533765</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="2"/>
-        <v>1.8783411038499058E-2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="3"/>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>5.8181547641659198E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>1.0298410747642976</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>2.8247828265626013E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="8"/>
         <v>12.060161075042679</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="4"/>
-        <v>5.8181547641659198E-2</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
-        <v>1.0298410747642976</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="6"/>
-        <v>2.8247828265626013E-2</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="7"/>
-        <v>12.060161075042679</v>
-      </c>
       <c r="T33">
-        <f t="shared" si="8"/>
-        <v>1.5893569812423066E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.2222970481513579E-2</v>
       </c>
       <c r="U33">
-        <f t="shared" si="9"/>
-        <v>1.0010999402276886</v>
+        <f t="shared" si="10"/>
+        <v>1.0008663699673448</v>
       </c>
       <c r="V33">
-        <f t="shared" si="10"/>
-        <v>7.9380535218133465E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.1061950167795014E-3</v>
       </c>
       <c r="X33">
-        <f t="shared" si="11"/>
-        <v>4.185057714845362</v>
-      </c>
-      <c r="Y33">
         <f t="shared" si="12"/>
-        <v>0.1174316141735663</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="0"/>
-        <v>1.4029867946266232E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.3137434320904578E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H34">
         <f t="shared" si="13"/>
         <v>2.1113776745352602</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.266177182546949</v>
       </c>
       <c r="J34">
-        <f>$B$3*$B$4*I34/(1+$B$4^2*I34^2)</f>
+        <f t="shared" ref="J34:J65" si="14">$B$3*$B$4*I34/(1+$B$4^2*I34^2)</f>
         <v>3.9923143449666798E-2</v>
       </c>
       <c r="K34">
-        <f>1+($B$3*$B$4^2*I34^2)/(1+$B$4^2*I34^2)</f>
+        <f t="shared" ref="K34:K65" si="15">1+($B$3*$B$4^2*I34^2)/(1+$B$4^2*I34^2)</f>
         <v>1.156103604764211</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7266248148153286E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.266177182546949</v>
       </c>
       <c r="O34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1317820426053493E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0345946216915038</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.963374211524622E-2</v>
       </c>
       <c r="S34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.266177182546949</v>
       </c>
       <c r="T34">
-        <f t="shared" si="8"/>
-        <v>1.7465443668441823E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.3431167829674174E-2</v>
       </c>
       <c r="U34">
-        <f t="shared" si="9"/>
-        <v>1.0013295967327216</v>
+        <f t="shared" si="10"/>
+        <v>1.0010472083276938</v>
       </c>
       <c r="V34">
-        <f t="shared" si="10"/>
-        <v>8.7211262532489401E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.7085586563453399E-3</v>
       </c>
       <c r="X34">
-        <f t="shared" si="11"/>
-        <v>4.192027823188436</v>
-      </c>
-      <c r="Y34">
         <f t="shared" si="12"/>
-        <v>0.11870640754416212</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="0"/>
-        <v>1.4158590132385452E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.3608548919744849E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H35">
         <f t="shared" si="13"/>
         <v>2.3225154419887866</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.592794900801646</v>
       </c>
       <c r="J35">
-        <f>$B$3*$B$4*I35/(1+$B$4^2*I35^2)</f>
+        <f t="shared" si="14"/>
         <v>3.6684631220190923E-2</v>
       </c>
       <c r="K35">
-        <f>1+($B$3*$B$4^2*I35^2)/(1+$B$4^2*I35^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1577847570582984</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5842595524145308E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.592794900801646</v>
       </c>
       <c r="O35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4194640996321842E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0398394501778583</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0867573347665225E-2</v>
       </c>
       <c r="S35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.592794900801646</v>
       </c>
       <c r="T35">
-        <f t="shared" si="8"/>
-        <v>1.9188769360832195E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.4755561349961798E-2</v>
       </c>
       <c r="U35">
-        <f t="shared" si="9"/>
-        <v>1.0016068677145908</v>
+        <f t="shared" si="10"/>
+        <v>1.0012655162688437</v>
       </c>
       <c r="V35">
-        <f t="shared" si="10"/>
-        <v>9.5789925066189045E-3</v>
+        <f t="shared" si="11"/>
+        <v>7.3684557743222386E-3</v>
       </c>
       <c r="X35">
-        <f t="shared" si="11"/>
-        <v>4.1992310749507471</v>
-      </c>
-      <c r="Y35">
         <f t="shared" si="12"/>
-        <v>0.12006804157734496</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="0"/>
-        <v>1.4296431826956944E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.4078624646132778E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H36">
         <f t="shared" si="13"/>
         <v>2.5547669861876656</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.052074390881813</v>
       </c>
       <c r="J36">
-        <f>$B$3*$B$4*I36/(1+$B$4^2*I36^2)</f>
+        <f t="shared" si="14"/>
         <v>3.3649155155340074E-2</v>
       </c>
       <c r="K36">
-        <f>1+($B$3*$B$4^2*I36^2)/(1+$B$4^2*I36^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1592017134774446</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4513934358498E-2</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.052074390881813</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6718303570030155E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0455462097576014</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1905956402203436E-2</v>
       </c>
       <c r="S36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.052074390881813</v>
       </c>
       <c r="T36">
-        <f t="shared" si="8"/>
-        <v>2.1076824662286029E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6206266510890119E-2</v>
       </c>
       <c r="U36">
-        <f t="shared" si="9"/>
-        <v>1.0019414708303052</v>
+        <f t="shared" si="10"/>
+        <v>1.0015289301968497</v>
       </c>
       <c r="V36">
-        <f t="shared" si="10"/>
-        <v>1.0517991956565957E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.0907630435122779E-3</v>
       </c>
       <c r="X36">
-        <f t="shared" si="11"/>
-        <v>4.2066893940653509</v>
-      </c>
-      <c r="Y36">
         <f t="shared" si="12"/>
-        <v>0.12144428338765625</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="0"/>
-        <v>1.4434662511449689E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.4510653804213716E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H37">
         <f t="shared" si="13"/>
         <v>2.8102436848064323</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.657281829969996</v>
       </c>
       <c r="J37">
-        <f>$B$3*$B$4*I37/(1+$B$4^2*I37^2)</f>
+        <f t="shared" si="14"/>
         <v>3.0818870876762324E-2</v>
       </c>
       <c r="K37">
-        <f>1+($B$3*$B$4^2*I37^2)/(1+$B$4^2*I37^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1603921028984956</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3279507331953199E-2</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.657281829969996</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8797484523160798E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0516621518015372</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2708928625656108E-2</v>
       </c>
       <c r="S37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.657281829969996</v>
       </c>
       <c r="T37">
-        <f t="shared" si="8"/>
-        <v>2.314361568526651E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7793928228803029E-2</v>
       </c>
       <c r="U37">
-        <f t="shared" si="9"/>
-        <v>1.0023450363623916</v>
+        <f t="shared" si="10"/>
+        <v>1.0018465845658187</v>
       </c>
       <c r="V37">
-        <f t="shared" si="10"/>
-        <v>1.154473501921901E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.8805653993992411E-3</v>
       </c>
       <c r="X37">
-        <f t="shared" si="11"/>
-        <v>4.2143992910624242</v>
-      </c>
-      <c r="Y37">
         <f t="shared" si="12"/>
-        <v>0.12275997108518963</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="0"/>
-        <v>1.4564349816773365E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.4869001357008548E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H38">
         <f t="shared" si="13"/>
         <v>3.0912680532870755</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.423010012966994</v>
       </c>
       <c r="J38">
-        <f>$B$3*$B$4*I38/(1+$B$4^2*I38^2)</f>
+        <f t="shared" si="14"/>
         <v>2.8191364930681324E-2</v>
       </c>
       <c r="K38">
-        <f>1+($B$3*$B$4^2*I38^2)/(1+$B$4^2*I38^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1613894147900883</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2136913154050352E-2</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.423010012966994</v>
       </c>
       <c r="O38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0350303367164121E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0581110324706215</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3243346495925225E-2</v>
       </c>
       <c r="S38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.423010012966994</v>
       </c>
       <c r="T38">
-        <f t="shared" si="8"/>
-        <v>2.5403762438262572E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9529623633074013E-2</v>
       </c>
       <c r="U38">
-        <f t="shared" si="9"/>
-        <v>1.0028314513262044</v>
+        <f t="shared" si="10"/>
+        <v>1.0022293791019443</v>
       </c>
       <c r="V38">
-        <f t="shared" si="10"/>
-        <v>1.2666018005651454E-2</v>
+        <f t="shared" si="11"/>
+        <v>9.7430907735780448E-3</v>
       </c>
       <c r="X38">
-        <f t="shared" si="11"/>
-        <v>4.2223318985869138</v>
-      </c>
-      <c r="Y38">
         <f t="shared" si="12"/>
-        <v>0.12394543073610802</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="0"/>
-        <v>1.4677367117633362E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.5123350423553624E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H39">
         <f t="shared" si="13"/>
         <v>3.4003948586157833</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.365311014263696</v>
       </c>
       <c r="J39">
-        <f>$B$3*$B$4*I39/(1+$B$4^2*I39^2)</f>
+        <f t="shared" si="14"/>
         <v>2.5760893938666419E-2</v>
       </c>
       <c r="K39">
-        <f>1+($B$3*$B$4^2*I39^2)/(1+$B$4^2*I39^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1622230483766602</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1082594676920257E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.365311014263696</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1311580439755759E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0647955773455868</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3486042747062933E-2</v>
       </c>
       <c r="S39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.365311014263696</v>
       </c>
       <c r="T39">
-        <f t="shared" si="8"/>
-        <v>2.7872317501270758E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.1424710916499667E-2</v>
       </c>
       <c r="U39">
-        <f t="shared" si="9"/>
-        <v>1.0034172505588363</v>
+        <f t="shared" si="10"/>
+        <v>1.0026902813924026</v>
       </c>
       <c r="V39">
-        <f t="shared" si="10"/>
-        <v>1.3888697591030919E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.0683613531562251E-2</v>
       </c>
       <c r="X39">
-        <f t="shared" si="11"/>
-        <v>4.2304358762810832</v>
-      </c>
-      <c r="Y39">
         <f t="shared" si="12"/>
-        <v>0.12494479187969293</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="0"/>
-        <v>1.4767366239992526E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.5252250955545437E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H40">
         <f t="shared" si="13"/>
         <v>3.7404343444773618</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.501842115690067</v>
       </c>
       <c r="J40">
-        <f>$B$3*$B$4*I40/(1+$B$4^2*I40^2)</f>
+        <f t="shared" si="14"/>
         <v>2.3519396163752655E-2</v>
       </c>
       <c r="K40">
-        <f>1+($B$3*$B$4^2*I40^2)/(1+$B$4^2*I40^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1629185293732776</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0112228659916433E-2</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.501842115690067</v>
       </c>
       <c r="O40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1639203751422631E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0716025909526765</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3426199393440215E-2</v>
       </c>
       <c r="S40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.501842115690067</v>
       </c>
       <c r="T40">
-        <f t="shared" si="8"/>
-        <v>3.0564496557407433E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.349060742139978E-2</v>
       </c>
       <c r="U40">
-        <f t="shared" si="9"/>
-        <v>1.0041220539781182</v>
+        <f t="shared" si="10"/>
+        <v>1.0032446635437537</v>
       </c>
       <c r="V40">
-        <f t="shared" si="10"/>
-        <v>1.5219512626138125E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1707317404721636E-2</v>
       </c>
       <c r="X40">
-        <f t="shared" si="11"/>
-        <v>4.2386431743040722</v>
-      </c>
-      <c r="Y40">
         <f t="shared" si="12"/>
-        <v>0.1257230964725827</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="0"/>
-        <v>1.4830582724532448E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.5245745458078283E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H41">
         <f t="shared" si="13"/>
         <v>4.1144777789250986</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.852026327259079</v>
       </c>
       <c r="J41">
-        <f>$B$3*$B$4*I41/(1+$B$4^2*I41^2)</f>
+        <f t="shared" si="14"/>
         <v>2.1457295270513502E-2</v>
       </c>
       <c r="K41">
-        <f>1+($B$3*$B$4^2*I41^2)/(1+$B$4^2*I41^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1634978237539375</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2210293962059868E-3</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.852026327259079</v>
       </c>
       <c r="O41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1318508813655243E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0784102659044612</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3066501251191496E-2</v>
       </c>
       <c r="S41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25.852026327259079</v>
       </c>
       <c r="T41">
-        <f t="shared" si="8"/>
-        <v>3.3495294666830454E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.5738476389198878E-2</v>
       </c>
       <c r="U41">
-        <f t="shared" si="9"/>
-        <v>1.0049690448395692</v>
+        <f t="shared" si="10"/>
+        <v>1.0039106679518763</v>
       </c>
       <c r="V41">
-        <f t="shared" si="10"/>
-        <v>1.666483900117419E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.2819106923980153E-2</v>
       </c>
       <c r="X41">
-        <f t="shared" si="11"/>
-        <v>4.2468771344979679</v>
-      </c>
-      <c r="Y41">
         <f t="shared" si="12"/>
-        <v>0.12627109875099921</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="0"/>
-        <v>1.486634705361284E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.510663757137764E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H42">
         <f t="shared" si="13"/>
         <v>4.5259255568176089</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.437228959984989</v>
       </c>
       <c r="J42">
-        <f>$B$3*$B$4*I42/(1+$B$4^2*I42^2)</f>
+        <f t="shared" si="14"/>
         <v>1.9564123593505827E-2</v>
       </c>
       <c r="K42">
-        <f>1+($B$3*$B$4^2*I42^2)/(1+$B$4^2*I42^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1639796978114749</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4039797387748544E-3</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.437228959984989</v>
       </c>
       <c r="O42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0363851647325448E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0850967476810132</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2422846993920937E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.437228959984989</v>
       </c>
       <c r="T42">
-        <f t="shared" si="8"/>
-        <v>3.6678957032585127E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.8178797944149542E-2</v>
       </c>
       <c r="U42">
-        <f t="shared" si="9"/>
-        <v>1.0059854771356418</v>
+        <f t="shared" si="10"/>
+        <v>1.0047095916795492</v>
       </c>
       <c r="V42">
-        <f t="shared" si="10"/>
-        <v>1.8230361106713836E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.4023354697472189E-2</v>
       </c>
       <c r="X42">
-        <f t="shared" si="11"/>
-        <v>4.2550619226281299</v>
-      </c>
-      <c r="Y42">
         <f t="shared" si="12"/>
-        <v>0.12660693227341641</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="0"/>
-        <v>1.4877213842662235E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.4850181430167982E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H43">
         <f t="shared" si="13"/>
         <v>4.97851811249937</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.280951855983488</v>
       </c>
       <c r="J43">
-        <f>$B$3*$B$4*I43/(1+$B$4^2*I43^2)</f>
+        <f t="shared" si="14"/>
         <v>1.7828994224662983E-2</v>
       </c>
       <c r="K43">
-        <f>1+($B$3*$B$4^2*I43^2)/(1+$B$4^2*I43^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1643800898310905</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6560027006513506E-3</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.280951855983488</v>
       </c>
       <c r="O43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8817068610257284E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0915487064057883</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.152267425466318E-2</v>
       </c>
       <c r="S43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.280951855983488</v>
       </c>
       <c r="T43">
-        <f t="shared" si="8"/>
-        <v>4.0128268139869028E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.0820796377092365E-2</v>
       </c>
       <c r="U43">
-        <f t="shared" si="9"/>
-        <v>1.0072031904929517</v>
+        <f t="shared" si="10"/>
+        <v>1.0056662709001485</v>
       </c>
       <c r="V43">
-        <f t="shared" si="10"/>
-        <v>1.9920641891647106E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.5323570685882399E-2</v>
       </c>
       <c r="X43">
-        <f t="shared" si="11"/>
-        <v>4.2631319867298307</v>
-      </c>
-      <c r="Y43">
         <f t="shared" si="12"/>
-        <v>0.1267743309747893</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="0"/>
-        <v>1.4868684733361438E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.4502247641196933E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H44">
         <f t="shared" si="13"/>
         <v>5.4763699237493073</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.409047041581836</v>
       </c>
       <c r="J44">
-        <f>$B$3*$B$4*I44/(1+$B$4^2*I44^2)</f>
+        <f t="shared" si="14"/>
         <v>1.6240949959602968E-2</v>
       </c>
       <c r="K44">
-        <f>1+($B$3*$B$4^2*I44^2)/(1+$B$4^2*I44^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1647124710248467</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9720855419845938E-3</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.409047041581836</v>
       </c>
       <c r="O44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.674312307229642E-2</v>
       </c>
       <c r="P44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0976686652361176</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0402217529795033E-2</v>
       </c>
       <c r="S44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.409047041581836</v>
       </c>
       <c r="T44">
-        <f t="shared" si="8"/>
-        <v>4.3853619541967891E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.3671693491096125E-2</v>
       </c>
       <c r="U44">
-        <f t="shared" si="9"/>
-        <v>1.0086590971654124</v>
+        <f t="shared" si="10"/>
+        <v>1.0068094356848625</v>
       </c>
       <c r="V44">
-        <f t="shared" si="10"/>
-        <v>2.1738573352090746E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.6721979501608274E-2</v>
       </c>
       <c r="X44">
-        <f t="shared" si="11"/>
-        <v>4.2710402334263762</v>
-      </c>
-      <c r="Y44">
         <f t="shared" si="12"/>
-        <v>0.12683769257386729</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="0"/>
-        <v>1.4848571500357151E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.4096282573387902E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H45">
         <f t="shared" si="13"/>
         <v>6.0240069161242387</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.849951745740029</v>
       </c>
       <c r="J45">
-        <f>$B$3*$B$4*I45/(1+$B$4^2*I45^2)</f>
+        <f t="shared" si="14"/>
         <v>1.4789214186113085E-2</v>
       </c>
       <c r="K45">
-        <f>1+($B$3*$B$4^2*I45^2)/(1+$B$4^2*I45^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1649881824084476</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.347366612568758E-3</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.849951745740029</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4223754305529249E-2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1033801368261826</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9103185820557567E-2</v>
       </c>
       <c r="S45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.849951745740029</v>
       </c>
       <c r="T45">
-        <f t="shared" si="8"/>
-        <v>4.7861815836023718E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.6735758025478654E-2</v>
       </c>
       <c r="U45">
-        <f t="shared" si="9"/>
-        <v>1.0103955871825958</v>
+        <f t="shared" si="10"/>
+        <v>1.0081719905131248</v>
       </c>
       <c r="V45">
-        <f t="shared" si="10"/>
-        <v>2.3684691641163248E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.8218993570125578E-2</v>
       </c>
       <c r="X45">
-        <f t="shared" si="11"/>
-        <v>4.2787639064172263</v>
-      </c>
-      <c r="Y45">
         <f t="shared" si="12"/>
-        <v>0.12687478432766605</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="0"/>
-        <v>1.4826102479898592E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.3669546003251897E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H46">
         <f t="shared" si="13"/>
         <v>6.6264076077366632</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.634946920314036</v>
       </c>
       <c r="J46">
-        <f>$B$3*$B$4*I46/(1+$B$4^2*I46^2)</f>
+        <f t="shared" si="14"/>
         <v>1.3463365177301125E-2</v>
       </c>
       <c r="K46">
-        <f>1+($B$3*$B$4^2*I46^2)/(1+$B$4^2*I46^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1652167406547442</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7771935072508298E-3</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.634946920314036</v>
       </c>
       <c r="O46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1350223323543035E-2</v>
       </c>
       <c r="P46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1086301167705883</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7669383320676283E-2</v>
       </c>
       <c r="S46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.634946920314036</v>
       </c>
       <c r="T46">
-        <f t="shared" si="8"/>
-        <v>5.2154582971437352E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.0013126008437323E-2</v>
       </c>
       <c r="U46">
-        <f t="shared" si="9"/>
-        <v>1.0124607739021003</v>
+        <f t="shared" si="10"/>
+        <v>1.0097911570112719</v>
       </c>
       <c r="V46">
-        <f t="shared" si="10"/>
-        <v>2.5756347463432902E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.9812574971871472E-2</v>
       </c>
       <c r="X46">
-        <f t="shared" si="11"/>
-        <v>4.2863076313274329</v>
-      </c>
-      <c r="Y46">
         <f t="shared" si="12"/>
-        <v>0.12696817147228151</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="0"/>
-        <v>1.481090280878423E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.3259151799798586E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H47">
         <f t="shared" si="13"/>
         <v>7.28904836851033</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.798441612345442</v>
       </c>
       <c r="J47">
-        <f>$B$3*$B$4*I47/(1+$B$4^2*I47^2)</f>
+        <f t="shared" si="14"/>
         <v>1.2253451578684248E-2</v>
       </c>
       <c r="K47">
-        <f>1+($B$3*$B$4^2*I47^2)/(1+$B$4^2*I47^2)</f>
+        <f t="shared" si="15"/>
         <v>1.165406110243193</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2571594875743533E-3</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.798441612345442</v>
       </c>
       <c r="O47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8216244718623696E-2</v>
       </c>
       <c r="P47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1133890119880401</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6143712616075759E-2</v>
       </c>
       <c r="S47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45.798441612345442</v>
       </c>
       <c r="T47">
-        <f t="shared" si="8"/>
-        <v>5.672675641204062E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.3498379087273428E-2</v>
       </c>
       <c r="U47">
-        <f t="shared" si="9"/>
-        <v>1.0149084734290903</v>
+        <f t="shared" si="10"/>
+        <v>1.0117083930212918</v>
       </c>
       <c r="V47">
-        <f t="shared" si="10"/>
-        <v>2.7946735049110816E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.1497488499316021E-2</v>
       </c>
       <c r="X47">
-        <f t="shared" si="11"/>
-        <v>4.2937035956603236</v>
-      </c>
-      <c r="Y47">
         <f t="shared" si="12"/>
-        <v>0.12719645270934857</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="0"/>
-        <v>1.4811974077333484E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2898360602966134E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H48">
         <f t="shared" si="13"/>
         <v>8.0179532053613638</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.378285773579989</v>
       </c>
       <c r="J48">
-        <f>$B$3*$B$4*I48/(1+$B$4^2*I48^2)</f>
+        <f t="shared" si="14"/>
         <v>1.1150063483604575E-2</v>
       </c>
       <c r="K48">
-        <f>1+($B$3*$B$4^2*I48^2)/(1+$B$4^2*I48^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1655629419791862</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.783123708733906E-3</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.378285773579989</v>
       </c>
       <c r="O48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4911955209920947E-2</v>
       </c>
       <c r="P48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1176484951141454</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4565843129557827E-2</v>
       </c>
       <c r="S48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.378285773579989</v>
       </c>
       <c r="T48">
-        <f t="shared" si="8"/>
-        <v>6.1564153276625844E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.7178890947920209E-2</v>
       </c>
       <c r="U48">
-        <f t="shared" si="9"/>
-        <v>1.0177977794165862</v>
+        <f t="shared" si="10"/>
+        <v>1.0139689779258323</v>
       </c>
       <c r="V48">
-        <f t="shared" si="10"/>
-        <v>3.0243804084498567E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.3264464680383522E-2</v>
       </c>
       <c r="X48">
-        <f t="shared" si="11"/>
-        <v>4.3010092165099181</v>
-      </c>
-      <c r="Y48">
         <f t="shared" si="12"/>
-        <v>0.12762617197015136</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="0"/>
-        <v>1.483677034220755E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2613431518675258E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H49">
         <f t="shared" si="13"/>
         <v>8.8197485258975004</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.416114350937988</v>
       </c>
       <c r="J49">
-        <f>$B$3*$B$4*I49/(1+$B$4^2*I49^2)</f>
+        <f t="shared" si="14"/>
         <v>1.0144370525126345E-2</v>
       </c>
       <c r="K49">
-        <f>1+($B$3*$B$4^2*I49^2)/(1+$B$4^2*I49^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1656927796196093</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3512195933977874E-3</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.416114350937988</v>
       </c>
       <c r="O49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1519412197930915E-2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1214179939539382</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.297065522209155E-2</v>
       </c>
       <c r="S49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55.416114350937988</v>
       </c>
       <c r="T49">
-        <f t="shared" si="8"/>
-        <v>6.6641177481094632E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.1032989689370797E-2</v>
       </c>
       <c r="U49">
-        <f t="shared" si="9"/>
-        <v>1.021192063970974</v>
+        <f t="shared" si="10"/>
+        <v>1.0166211320645853</v>
       </c>
       <c r="V49">
-        <f t="shared" si="10"/>
-        <v>3.2629110542612298E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.5099315802009466E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="11"/>
-        <v>4.308302837544522</v>
-      </c>
-      <c r="Y49">
         <f t="shared" si="12"/>
-        <v>0.12830496020415189</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="0"/>
-        <v>1.4890429600960703E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2421190617498808E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H50">
         <f t="shared" si="13"/>
         <v>9.7017233784872516</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.957725786031794</v>
       </c>
       <c r="J50">
-        <f>$B$3*$B$4*I50/(1+$B$4^2*I50^2)</f>
+        <f t="shared" si="14"/>
         <v>9.228135916648908E-3</v>
       </c>
       <c r="K50">
-        <f>1+($B$3*$B$4^2*I50^2)/(1+$B$4^2*I50^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1658002372493064</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9578547086345593E-3</v>
       </c>
       <c r="N50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.957725786031794</v>
       </c>
       <c r="O50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8109757722509347E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1247205475640663</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1387427226570218E-2</v>
       </c>
       <c r="S50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60.957725786031794</v>
       </c>
       <c r="T50">
-        <f t="shared" si="8"/>
-        <v>7.1918274738572721E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5028039656479295E-2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="9"/>
-        <v>1.0251572137558902</v>
+        <f t="shared" si="10"/>
+        <v>1.0197145248974839</v>
       </c>
       <c r="V50">
-        <f t="shared" si="10"/>
-        <v>3.5076705198749086E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.6982080922114692E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="11"/>
-        <v>4.3156779985692628</v>
-      </c>
-      <c r="Y50">
         <f t="shared" si="12"/>
-        <v>0.12925616837773096</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="0"/>
-        <v>1.4975186798063025E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2327362857319468E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H51">
         <f t="shared" si="13"/>
         <v>10.671895716335978</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.05349836463499</v>
       </c>
       <c r="J51">
-        <f>$B$3*$B$4*I51/(1+$B$4^2*I51^2)</f>
+        <f t="shared" si="14"/>
         <v>8.3937133292334553E-3</v>
       </c>
       <c r="K51">
-        <f>1+($B$3*$B$4^2*I51^2)/(1+$B$4^2*I51^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1658891504585078</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5997047086047886E-3</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.05349836463499</v>
       </c>
       <c r="O51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4741907053749273E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1275886421396932</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9839640708356102E-2</v>
       </c>
       <c r="S51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67.05349836463499</v>
       </c>
       <c r="T51">
-        <f t="shared" si="8"/>
-        <v>7.7339447158052743E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.911862051255725E-2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="9"/>
-        <v>1.0297589105424045</v>
+        <f t="shared" si="10"/>
+        <v>1.0232980327048362</v>
       </c>
       <c r="V51">
-        <f t="shared" si="10"/>
-        <v>3.7552210700131629E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.8886315923178189E-2</v>
       </c>
       <c r="X51">
-        <f t="shared" si="11"/>
-        <v>4.3232367031406058</v>
-      </c>
-      <c r="Y51">
         <f t="shared" si="12"/>
-        <v>0.13047506754103547</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="0"/>
-        <v>1.5089975000241387E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2325661340139079E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H52">
         <f t="shared" si="13"/>
         <v>11.739085287969576</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.758848201098488</v>
       </c>
       <c r="J52">
-        <f>$B$3*$B$4*I52/(1+$B$4^2*I52^2)</f>
+        <f t="shared" si="14"/>
         <v>7.6340318530018431E-3</v>
       </c>
       <c r="K52">
-        <f>1+($B$3*$B$4^2*I52^2)/(1+$B$4^2*I52^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1659627044543881</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2737032770590144E-3</v>
       </c>
       <c r="N52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73.758848201098488</v>
       </c>
       <c r="O52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1462459010382993E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1300604536683594</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8345239352367888E-2</v>
       </c>
       <c r="S52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73.758848201098488</v>
       </c>
       <c r="T52">
-        <f t="shared" si="8"/>
-        <v>8.2830151343806863E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.3245069805630202E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="9"/>
-        <v>1.035058804660427</v>
+        <f t="shared" si="10"/>
+        <v>1.0274166457399334</v>
       </c>
       <c r="V52">
-        <f t="shared" si="10"/>
-        <v>4.0012292524278875E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.077868655713761E-2</v>
       </c>
       <c r="X52">
-        <f t="shared" si="11"/>
-        <v>4.3310819627831751</v>
-      </c>
-      <c r="Y52">
         <f t="shared" si="12"/>
-        <v>0.13192664220719169</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="0"/>
-        <v>1.5230217684730095E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2397629186564515E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H53">
         <f t="shared" si="13"/>
         <v>12.912993816766535</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.134733021208348</v>
       </c>
       <c r="J53">
-        <f>$B$3*$B$4*I53/(1+$B$4^2*I53^2)</f>
+        <f t="shared" si="14"/>
         <v>6.9425729939756493E-3</v>
       </c>
       <c r="K53">
-        <f>1+($B$3*$B$4^2*I53^2)/(1+$B$4^2*I53^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1660235421272236</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9770295123330162E-3</v>
       </c>
       <c r="N53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81.134733021208348</v>
       </c>
       <c r="O53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.830646873401846E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1321767329526886</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6917177159309814E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81.134733021208348</v>
       </c>
       <c r="T53">
-        <f t="shared" si="8"/>
-        <v>8.8296025255295785E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.7332744891217225E-2</v>
       </c>
       <c r="U53">
-        <f t="shared" si="9"/>
-        <v>1.0411095278306999</v>
+        <f t="shared" si="10"/>
+        <v>1.0321075116362197</v>
       </c>
       <c r="V53">
-        <f t="shared" si="10"/>
-        <v>4.2404772454284007E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.2619055734064629E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="11"/>
-        <v>4.3393098029106119</v>
-      </c>
-      <c r="Y53">
         <f t="shared" si="12"/>
-        <v>0.13354506698328988</v>
-      </c>
-      <c r="Z53">
-        <f t="shared" si="0"/>
-        <v>1.5387823530566303E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2513262405707459E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H54">
         <f t="shared" si="13"/>
         <v>14.204293198443191</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.248206323329185</v>
       </c>
       <c r="J54">
-        <f>$B$3*$B$4*I54/(1+$B$4^2*I54^2)</f>
+        <f t="shared" si="14"/>
         <v>6.3133426470569085E-3</v>
       </c>
       <c r="K54">
-        <f>1+($B$3*$B$4^2*I54^2)/(1+$B$4^2*I54^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1660738548691474</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7070938177262234E-3</v>
       </c>
       <c r="N54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.248206323329185</v>
       </c>
       <c r="O54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5298743201360082E-2</v>
       </c>
       <c r="P54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1339784109231437</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5564116063119866E-2</v>
       </c>
       <c r="S54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89.248206323329185</v>
       </c>
       <c r="T54">
-        <f t="shared" si="8"/>
-        <v>9.3622989004934126E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.1292426264364953E-2</v>
       </c>
       <c r="U54">
-        <f t="shared" si="9"/>
-        <v>1.0479486652661851</v>
+        <f t="shared" si="10"/>
+        <v>1.037395247297747</v>
       </c>
       <c r="V54">
-        <f t="shared" si="10"/>
-        <v>4.4669644662963207E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.4361265125356324E-2</v>
       </c>
       <c r="X54">
-        <f t="shared" si="11"/>
-        <v>4.3480009310584764</v>
-      </c>
-      <c r="Y54">
         <f t="shared" si="12"/>
-        <v>0.13523507485335112</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="0"/>
-        <v>1.5551408221574314E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2632475006202412E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H55">
         <f t="shared" si="13"/>
         <v>15.624722518287511</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.17302695566211</v>
       </c>
       <c r="J55">
-        <f>$B$3*$B$4*I55/(1+$B$4^2*I55^2)</f>
+        <f t="shared" si="14"/>
         <v>5.7408402061494782E-3</v>
       </c>
       <c r="K55">
-        <f>1+($B$3*$B$4^2*I55^2)/(1+$B$4^2*I55^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1661154586681954</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4615230693820034E-3</v>
       </c>
       <c r="N55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.17302695566211</v>
       </c>
       <c r="O55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2455381120028916E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1355048931889116</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.429116744221259E-2</v>
       </c>
       <c r="S55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>98.17302695566211</v>
       </c>
       <c r="T55">
-        <f t="shared" si="8"/>
-        <v>9.8679298698118811E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.5022291049184106E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="9"/>
-        <v>1.0555920589963379</v>
+        <f t="shared" si="10"/>
+        <v>1.0432868538917028</v>
       </c>
       <c r="V55">
-        <f t="shared" si="10"/>
-        <v>4.6741209284931327E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.5954776373024112E-2</v>
       </c>
       <c r="X55">
-        <f t="shared" si="11"/>
-        <v>4.3572124108534442</v>
-      </c>
-      <c r="Y55">
         <f t="shared" si="12"/>
-        <v>0.1368755200242972</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="0"/>
-        <v>1.5706776158462228E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2707466884618706E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H56">
         <f t="shared" si="13"/>
         <v>17.187194770116264</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.99032965122834</v>
       </c>
       <c r="J56">
-        <f>$B$3*$B$4*I56/(1+$B$4^2*I56^2)</f>
+        <f t="shared" si="14"/>
         <v>5.2200263765413788E-3</v>
       </c>
       <c r="K56">
-        <f>1+($B$3*$B$4^2*I56^2)/(1+$B$4^2*I56^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1661498577085354</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2381456131198444E-3</v>
       </c>
       <c r="N56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107.99032965122834</v>
       </c>
       <c r="O56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9785354128545247E-2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1367929508004102</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3100606450617735E-2</v>
       </c>
       <c r="S56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>107.99032965122834</v>
       </c>
       <c r="T56">
-        <f t="shared" si="8"/>
-        <v>0.10332004552025061</v>
+        <f t="shared" si="9"/>
+        <v>7.8411791061740996E-2</v>
       </c>
       <c r="U56">
-        <f t="shared" si="9"/>
-        <v>1.0640271217573332</v>
+        <f t="shared" si="10"/>
+        <v>1.0497668048411932</v>
       </c>
       <c r="V56">
-        <f t="shared" si="10"/>
-        <v>4.8551415376333916E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.7347242597179947E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="11"/>
-        <v>4.3669699302662783</v>
-      </c>
-      <c r="Y56">
         <f t="shared" si="12"/>
-        <v>0.13832542602533723</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" si="0"/>
-        <v>1.5837689317098499E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2685994660917529E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H57">
         <f t="shared" si="13"/>
         <v>18.905914247127892</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118.78936261635118</v>
       </c>
       <c r="J57">
-        <f>$B$3*$B$4*I57/(1+$B$4^2*I57^2)</f>
+        <f t="shared" si="14"/>
         <v>4.7462908031754647E-3</v>
       </c>
       <c r="K57">
-        <f>1+($B$3*$B$4^2*I57^2)/(1+$B$4^2*I57^2)</f>
+        <f t="shared" si="15"/>
         <v>1.166178297421703</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0349764755822554E-3</v>
       </c>
       <c r="N57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118.78936261635118</v>
       </c>
       <c r="O57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7291997367418584E-2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.137876089057579</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.199251730037784E-2</v>
       </c>
       <c r="S57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>118.78936261635118</v>
       </c>
       <c r="T57">
-        <f t="shared" si="8"/>
-        <v>0.1073943359836621</v>
+        <f t="shared" si="9"/>
+        <v>8.1347542212469259E-2</v>
       </c>
       <c r="U57">
-        <f t="shared" si="9"/>
-        <v>1.073207142046785</v>
+        <f t="shared" si="10"/>
+        <v>1.0567930909759744</v>
       </c>
       <c r="V57">
-        <f t="shared" si="10"/>
-        <v>5.0034299892396911E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.8487922994151484E-2</v>
       </c>
       <c r="X57">
-        <f t="shared" si="11"/>
-        <v>4.3772615285260663</v>
-      </c>
-      <c r="Y57">
         <f t="shared" si="12"/>
-        <v>0.13943262415425617</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="0"/>
-        <v>1.5926924087764825E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2515416770111581E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H58">
         <f t="shared" si="13"/>
         <v>20.796505671840684</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.66829887798633</v>
       </c>
       <c r="J58">
-        <f>$B$3*$B$4*I58/(1+$B$4^2*I58^2)</f>
+        <f t="shared" si="14"/>
         <v>4.3154202891576643E-3</v>
       </c>
       <c r="K58">
-        <f>1+($B$3*$B$4^2*I58^2)/(1+$B$4^2*I58^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662018086659702</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.850203051088609E-3</v>
       </c>
       <c r="N58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130.66829887798633</v>
       </c>
       <c r="O58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4974335557187408E-2</v>
       </c>
       <c r="P58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1387842756170747</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0965349668028444E-2</v>
       </c>
       <c r="S58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>130.66829887798633</v>
       </c>
       <c r="T58">
-        <f t="shared" si="8"/>
-        <v>0.1107549489383491</v>
+        <f t="shared" si="9"/>
+        <v>8.3720970229030023E-2</v>
       </c>
       <c r="U58">
-        <f t="shared" si="9"/>
-        <v>1.0830477559692009</v>
+        <f t="shared" si="10"/>
+        <v>1.064295119489103</v>
       </c>
       <c r="V58">
-        <f t="shared" si="10"/>
-        <v>5.1131147416134198E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.9331651858564784E-2</v>
       </c>
       <c r="X58">
-        <f t="shared" si="11"/>
-        <v>4.3880338402522456</v>
-      </c>
-      <c r="Y58">
         <f t="shared" si="12"/>
-        <v>0.14004470478469416</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="0"/>
-        <v>1.5957568911620302E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.2147204577681835E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H59">
         <f t="shared" si="13"/>
         <v>22.876156239024755</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143.73512876578496</v>
       </c>
       <c r="J59">
-        <f>$B$3*$B$4*I59/(1+$B$4^2*I59^2)</f>
+        <f t="shared" si="14"/>
         <v>3.9235681260247476E-3</v>
       </c>
       <c r="K59">
-        <f>1+($B$3*$B$4^2*I59^2)/(1+$B$4^2*I59^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662212444680389</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.682171433866499E-3</v>
       </c>
       <c r="N59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>143.73512876578496</v>
       </c>
       <c r="O59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.282821323735271E-2</v>
       </c>
       <c r="P59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1395439223428294</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0016381461812969E-2</v>
       </c>
       <c r="S59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>143.73512876578496</v>
       </c>
       <c r="T59">
-        <f t="shared" si="8"/>
-        <v>0.11326969063859121</v>
+        <f t="shared" si="9"/>
+        <v>8.5437014165488864E-2</v>
       </c>
       <c r="U59">
-        <f t="shared" si="9"/>
-        <v>1.0934267325183502</v>
+        <f t="shared" si="10"/>
+        <v>1.0721742870572146</v>
       </c>
       <c r="V59">
-        <f t="shared" si="10"/>
-        <v>5.1795738694677601E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.9842875918982786E-2</v>
       </c>
       <c r="X59">
-        <f t="shared" si="11"/>
-        <v>4.3991918993292183</v>
-      </c>
-      <c r="Y59">
         <f t="shared" si="12"/>
-        <v>0.14002147200196868</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="0"/>
-        <v>1.5914453745848066E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.1541428814662255E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H60">
         <f t="shared" si="13"/>
         <v>25.163771862927234</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158.10864164236349</v>
       </c>
       <c r="J60">
-        <f>$B$3*$B$4*I60/(1+$B$4^2*I60^2)</f>
+        <f t="shared" si="14"/>
         <v>3.5672248705724907E-3</v>
       </c>
       <c r="K60">
-        <f>1+($B$3*$B$4^2*I60^2)/(1+$B$4^2*I60^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662373105454713</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5293734981365122E-3</v>
       </c>
       <c r="N60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>158.10864164236349</v>
       </c>
       <c r="O60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.084722603646004E-2</v>
       </c>
       <c r="P60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1401780343881089</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1420924661331365E-3</v>
       </c>
       <c r="S60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158.10864164236349</v>
       </c>
       <c r="T60">
-        <f t="shared" si="8"/>
-        <v>0.11483309122914472</v>
+        <f t="shared" si="9"/>
+        <v>8.6422775904586788E-2</v>
       </c>
       <c r="U60">
-        <f t="shared" si="9"/>
-        <v>1.1041878765788025</v>
+        <f t="shared" si="10"/>
+        <v>1.0803077275941648</v>
       </c>
       <c r="V60">
-        <f t="shared" si="10"/>
-        <v>5.1998891522401822E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.9999147324924489E-2</v>
       </c>
       <c r="X60">
-        <f t="shared" si="11"/>
-        <v>4.4106032215123827</v>
-      </c>
-      <c r="Y60">
         <f t="shared" si="12"/>
-        <v>0.13924754213617724</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="0"/>
-        <v>1.578554396561993E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.3">
+        <v>5.0670613289194137E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H61">
         <f t="shared" si="13"/>
         <v>27.68014904921996</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>173.91950580659986</v>
       </c>
       <c r="J61">
-        <f>$B$3*$B$4*I61/(1+$B$4^2*I61^2)</f>
+        <f t="shared" si="14"/>
         <v>3.243190766539093E-3</v>
       </c>
       <c r="K61">
-        <f>1+($B$3*$B$4^2*I61^2)/(1+$B$4^2*I61^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662505906395868</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3904347798702873E-3</v>
       </c>
       <c r="N61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173.91950580659986</v>
       </c>
       <c r="O61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9023466617557116E-2</v>
       </c>
       <c r="P61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1407064598588079</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3384583532172523E-3</v>
       </c>
       <c r="S61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>173.91950580659986</v>
       </c>
       <c r="T61">
-        <f t="shared" si="8"/>
-        <v>0.11537669461989451</v>
+        <f t="shared" si="9"/>
+        <v>8.6634768380732544E-2</v>
       </c>
       <c r="U61">
-        <f t="shared" si="9"/>
-        <v>1.1151491957545121</v>
+        <f t="shared" si="10"/>
+        <v>1.0885551920443184</v>
       </c>
       <c r="V61">
-        <f t="shared" si="10"/>
-        <v>5.1731505998993441E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.9793466153071909E-2</v>
       </c>
       <c r="X61">
-        <f t="shared" si="11"/>
-        <v>4.4221062462529064</v>
-      </c>
-      <c r="Y61">
         <f t="shared" si="12"/>
-        <v>0.13764335200399072</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="0"/>
-        <v>1.5563098706710575E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.9522359286159445E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H62">
         <f t="shared" si="13"/>
         <v>30.448163954141958</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191.31145638725985</v>
       </c>
       <c r="J62">
-        <f>$B$3*$B$4*I62/(1+$B$4^2*I62^2)</f>
+        <f t="shared" si="14"/>
         <v>2.9485499108439449E-3</v>
       </c>
       <c r="K62">
-        <f>1+($B$3*$B$4^2*I62^2)/(1+$B$4^2*I62^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662615675254693</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2641031793151126E-3</v>
       </c>
       <c r="N62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>191.31145638725985</v>
       </c>
       <c r="O62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7348107426645543E-2</v>
       </c>
       <c r="P62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1411461913519394</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6011765881165861E-3</v>
       </c>
       <c r="S62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>191.31145638725985</v>
       </c>
       <c r="T62">
-        <f t="shared" si="8"/>
-        <v>0.11487617310764756</v>
+        <f t="shared" si="9"/>
+        <v>8.606348421410491E-2</v>
       </c>
       <c r="U62">
-        <f t="shared" si="9"/>
-        <v>1.1261146272833413</v>
+        <f t="shared" si="10"/>
+        <v>1.0967683687108007</v>
       </c>
       <c r="V62">
-        <f t="shared" si="10"/>
-        <v>5.1005541675973452E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.9235032058441137E-2</v>
       </c>
       <c r="X62">
-        <f t="shared" si="11"/>
-        <v>4.4335223861607496</v>
-      </c>
-      <c r="Y62">
         <f t="shared" si="12"/>
-        <v>0.13517283044513703</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="0"/>
-        <v>1.524440599049182E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.8100311825872835E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H63">
         <f t="shared" si="13"/>
         <v>33.492980349556156</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.44260202598585</v>
       </c>
       <c r="J63">
-        <f>$B$3*$B$4*I63/(1+$B$4^2*I63^2)</f>
+        <f t="shared" si="14"/>
         <v>2.680646193939771E-3</v>
       </c>
       <c r="K63">
-        <f>1+($B$3*$B$4^2*I63^2)/(1+$B$4^2*I63^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662706404260414</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1492384790551379E-3</v>
       </c>
       <c r="N63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210.44260202598585</v>
       </c>
       <c r="O63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5811845339832403E-2</v>
       </c>
       <c r="P63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1415116855334275</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.925835950791665E-3</v>
       </c>
       <c r="S63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>210.44260202598585</v>
       </c>
       <c r="T63">
-        <f t="shared" si="8"/>
-        <v>0.11335393629628762</v>
+        <f t="shared" si="9"/>
+        <v>8.4734418379177667E-2</v>
       </c>
       <c r="U63">
-        <f t="shared" si="9"/>
-        <v>1.136887815326864</v>
+        <f t="shared" si="10"/>
+        <v>1.1048013877964105</v>
       </c>
       <c r="V63">
-        <f t="shared" si="10"/>
-        <v>4.9852736025540696E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.8348258481185164E-2</v>
       </c>
       <c r="X63">
-        <f t="shared" si="11"/>
-        <v>4.4446701412863323</v>
-      </c>
-      <c r="Y63">
         <f t="shared" si="12"/>
-        <v>0.13184642783005979</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="0"/>
-        <v>1.4831969936907635E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.642333291103197E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H64">
         <f t="shared" si="13"/>
         <v>36.842278384511772</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231.48686222858444</v>
       </c>
       <c r="J64">
-        <f>$B$3*$B$4*I64/(1+$B$4^2*I64^2)</f>
+        <f t="shared" si="14"/>
         <v>2.437060994919331E-3</v>
       </c>
       <c r="K64">
-        <f>1+($B$3*$B$4^2*I64^2)/(1+$B$4^2*I64^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662781394383575</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0448026557768383E-3</v>
       </c>
       <c r="N64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>231.48686222858444</v>
       </c>
       <c r="O64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4405232915999164E-2</v>
       </c>
       <c r="P64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.141815178513053</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3080405599260855E-3</v>
       </c>
       <c r="S64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>231.48686222858444</v>
       </c>
       <c r="T64">
-        <f t="shared" si="8"/>
-        <v>0.11087672635438757</v>
+        <f t="shared" si="9"/>
+        <v>8.2705345025030089E-2</v>
       </c>
       <c r="U64">
-        <f t="shared" si="9"/>
-        <v>1.1472859317539033</v>
+        <f t="shared" si="10"/>
+        <v>1.1125209638876505</v>
       </c>
       <c r="V64">
-        <f t="shared" si="10"/>
-        <v>4.8321313495444745E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.7170241150342134E-2</v>
       </c>
       <c r="X64">
-        <f t="shared" si="11"/>
-        <v>4.455379249705314</v>
-      </c>
-      <c r="Y64">
         <f t="shared" si="12"/>
-        <v>0.12771902026530607</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="0"/>
-        <v>1.4333125544110932E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.452308436604506E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H65">
         <f t="shared" si="13"/>
         <v>40.526506222962951</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254.63554845144287</v>
       </c>
       <c r="J65">
-        <f>$B$3*$B$4*I65/(1+$B$4^2*I65^2)</f>
+        <f t="shared" si="14"/>
         <v>2.2155925788325042E-3</v>
       </c>
       <c r="K65">
-        <f>1+($B$3*$B$4^2*I65^2)/(1+$B$4^2*I65^2)</f>
+        <f t="shared" si="15"/>
         <v>1.1662843374797376</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4985095299326896E-4</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>254.63554845144287</v>
       </c>
       <c r="O65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.311891875325775E-2</v>
       </c>
       <c r="P65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.142066983388216</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7434979489282348E-3</v>
       </c>
       <c r="S65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>254.63554845144287</v>
       </c>
       <c r="T65">
-        <f t="shared" si="8"/>
-        <v>0.10754866819434199</v>
+        <f t="shared" si="9"/>
+        <v>8.0060375958215288E-2</v>
       </c>
       <c r="U65">
-        <f t="shared" si="9"/>
-        <v>1.1571515227514202</v>
+        <f t="shared" si="10"/>
+        <v>1.1198147197890258</v>
       </c>
       <c r="V65">
-        <f t="shared" si="10"/>
-        <v>4.64712987364947E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.5747152874226702E-2</v>
       </c>
       <c r="X65">
-        <f t="shared" si="11"/>
-        <v>4.4655028436193742</v>
-      </c>
-      <c r="Y65">
         <f t="shared" si="12"/>
-        <v>0.12288317952643224</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="0"/>
-        <v>1.3759164849935815E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.2440501776148207E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H66">
         <f t="shared" si="13"/>
         <v>44.579156845259249</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>280.0991032965872</v>
       </c>
       <c r="J66">
-        <f>$B$3*$B$4*I66/(1+$B$4^2*I66^2)</f>
+        <f t="shared" ref="J66:J97" si="16">$B$3*$B$4*I66/(1+$B$4^2*I66^2)</f>
         <v>2.0142371220594779E-3</v>
       </c>
       <c r="K66">
-        <f>1+($B$3*$B$4^2*I66^2)/(1+$B$4^2*I66^2)</f>
+        <f t="shared" ref="K66:K75" si="17">1+($B$3*$B$4^2*I66^2)/(1+$B$4^2*I66^2)</f>
         <v>1.1662894601767313</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6352367522649759E-4</v>
       </c>
       <c r="N66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280.0991032965872</v>
       </c>
       <c r="O66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1943816435936469E-2</v>
       </c>
       <c r="P66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1422757624634421</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2280792556511609E-3</v>
       </c>
       <c r="S66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>280.0991032965872</v>
       </c>
       <c r="T66">
-        <f t="shared" si="8"/>
-        <v>0.10350107745120954</v>
+        <f t="shared" si="9"/>
+        <v>7.6901896676171047E-2</v>
       </c>
       <c r="U66">
-        <f t="shared" si="9"/>
-        <v>1.1663608431517385</v>
+        <f t="shared" si="10"/>
+        <v>1.1265966715787077</v>
       </c>
       <c r="V66">
-        <f t="shared" si="10"/>
-        <v>4.4369235326663183E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.4130181020510159E-2</v>
       </c>
       <c r="X66">
-        <f t="shared" si="11"/>
-        <v>4.4749260657919123</v>
-      </c>
-      <c r="Y66">
         <f t="shared" si="12"/>
-        <v>0.11745913100920549</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="0"/>
-        <v>1.3124142084392085E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.3">
+        <v>4.022178395138782E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H67">
         <f t="shared" si="13"/>
         <v>49.037072529785178</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I75" si="14">H67*PI()*2</f>
+        <f t="shared" ref="I67:I75" si="18">H67*PI()*2</f>
         <v>308.10901362624594</v>
       </c>
       <c r="J67">
-        <f>$B$3*$B$4*I67/(1+$B$4^2*I67^2)</f>
+        <f t="shared" si="16"/>
         <v>1.8311712784199966E-3</v>
       </c>
       <c r="K67">
-        <f>1+($B$3*$B$4^2*I67^2)/(1+$B$4^2*I67^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1662936940488307</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L75" si="15">J67/K67/2</f>
+        <f t="shared" ref="L67:L75" si="19">J67/K67/2</f>
         <v>7.8503866040080322E-4</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N75" si="16">I67</f>
+        <f t="shared" ref="N67:N75" si="20">I67</f>
         <v>308.10901362624594</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O75" si="17">$B$9*$B$10*N67/(1+$B$10^2*N67^2)</f>
+        <f t="shared" ref="O67:O75" si="21">$B$9*$B$10*N67/(1+$B$10^2*N67^2)</f>
         <v>1.0871218368492719E-2</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P75" si="18">1+($B$9*$B$10^2*N67^2)/(1+$B$10^2*N67^2)</f>
+        <f t="shared" ref="P67:P75" si="22">1+($B$9*$B$10^2*N67^2)/(1+$B$10^2*N67^2)</f>
         <v>1.1424487708462399</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q75" si="19">O67/P67/2</f>
+        <f t="shared" ref="Q67:Q75" si="23">O67/P67/2</f>
         <v>4.7578581402998666E-3</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S75" si="20">I67</f>
+        <f t="shared" ref="S67:S75" si="24">I67</f>
         <v>308.10901362624594</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T75" si="21">$B$15*$B$16*S67/(1+$B$16^2*S67^2)</f>
-        <v>9.888078594777526E-2</v>
+        <f t="shared" ref="T67:T75" si="25">$B$15*$B$16*S67/(1+$B$16^2*S67^2)</f>
+        <v>7.3341733009128926E-2</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U75" si="22">1+($B$15*$B$16^2*S67^2)/(1+$B$16^2*S67^2)</f>
-        <v>1.1748279386027285</v>
+        <f t="shared" ref="U67:U75" si="26">1+($B$15*$B$16^2*S67^2)/(1+$B$16^2*S67^2)</f>
+        <v>1.1328094839904213</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V75" si="23">T67/U67/2</f>
-        <v>4.2083092637964614E-2</v>
+        <f t="shared" ref="V67:V75" si="27">T67/U67/2</f>
+        <v>3.2371609721511249E-2</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X75" si="24">1+K67+P67+U67</f>
-        <v>4.483570403497799</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" ref="Y67:Y75" si="25">J67+O67+T67</f>
-        <v>0.11158317559468797</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" ref="Z67:Z75" si="26">Y67/2/X67</f>
-        <v>1.2443562334566867E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" ref="X67:X75" si="28">SUM(L67,Q67,V67)</f>
+        <v>3.791450652221192E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H68">
-        <f t="shared" ref="H68:H74" si="27">H67*1.1</f>
+        <f t="shared" ref="H68:H74" si="29">H67*1.1</f>
         <v>53.940779782763698</v>
       </c>
       <c r="I68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>338.91991498887052</v>
       </c>
       <c r="J68">
-        <f>$B$3*$B$4*I68/(1+$B$4^2*I68^2)</f>
+        <f t="shared" si="16"/>
         <v>1.6647361916292927E-3</v>
       </c>
       <c r="K68">
-        <f>1+($B$3*$B$4^2*I68^2)/(1+$B$4^2*I68^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1662971932794013</v>
       </c>
       <c r="L68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7.1368438560174261E-4</v>
       </c>
       <c r="N68">
-        <f t="shared" si="16"/>
-        <v>338.91991498887052</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="17"/>
-        <v>9.8928677735178588E-3</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="18"/>
-        <v>1.1425920708595905</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="19"/>
-        <v>4.3291337415265335E-3</v>
-      </c>
-      <c r="S68">
         <f t="shared" si="20"/>
         <v>338.91991498887052</v>
       </c>
+      <c r="O68">
+        <f t="shared" si="21"/>
+        <v>9.8928677735178588E-3</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="22"/>
+        <v>1.1425920708595905</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="23"/>
+        <v>4.3291337415265335E-3</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="24"/>
+        <v>338.91991498887052</v>
+      </c>
       <c r="T68">
-        <f t="shared" si="21"/>
-        <v>9.3838741946972892E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.949281877674908E-2</v>
       </c>
       <c r="U68">
-        <f t="shared" si="22"/>
-        <v>1.182504588978087</v>
+        <f t="shared" si="26"/>
+        <v>1.1384237258450687</v>
       </c>
       <c r="V68">
-        <f t="shared" si="23"/>
-        <v>3.9677961008196906E-2</v>
+        <f t="shared" si="27"/>
+        <v>3.0521508467843787E-2</v>
       </c>
       <c r="X68">
-        <f t="shared" si="24"/>
-        <v>4.4913938531170796</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="25"/>
-        <v>0.10539634591212005</v>
-      </c>
-      <c r="Z68">
-        <f t="shared" si="26"/>
-        <v>1.1733144471284094E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>3.5564326594972065E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>59.33485776104007</v>
       </c>
       <c r="I69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>372.8119064877576</v>
       </c>
       <c r="J69">
-        <f>$B$3*$B$4*I69/(1+$B$4^2*I69^2)</f>
+        <f t="shared" si="16"/>
         <v>1.5134228569850094E-3</v>
       </c>
       <c r="K69">
-        <f>1+($B$3*$B$4^2*I69^2)/(1+$B$4^2*I69^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663000853166401</v>
       </c>
       <c r="L69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.4881366126888712E-4</v>
       </c>
       <c r="N69">
-        <f t="shared" si="16"/>
-        <v>372.8119064877576</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="17"/>
-        <v>9.0009994531525528E-3</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="18"/>
-        <v>1.1427107184019436</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="19"/>
-        <v>3.9384418594323933E-3</v>
-      </c>
-      <c r="S69">
         <f t="shared" si="20"/>
         <v>372.8119064877576</v>
       </c>
+      <c r="O69">
+        <f t="shared" si="21"/>
+        <v>9.0009994531525528E-3</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="22"/>
+        <v>1.1427107184019436</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="23"/>
+        <v>3.9384418594323933E-3</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="24"/>
+        <v>372.8119064877576</v>
+      </c>
       <c r="T69">
-        <f t="shared" si="21"/>
-        <v>8.8520263149767839E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.546229899532495E-2</v>
       </c>
       <c r="U69">
-        <f t="shared" si="22"/>
-        <v>1.1893768959164079</v>
+        <f t="shared" si="26"/>
+        <v>1.1434348043107938</v>
       </c>
       <c r="V69">
-        <f t="shared" si="23"/>
-        <v>3.721287316648416E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.862528705114167E-2</v>
       </c>
       <c r="X69">
-        <f t="shared" si="24"/>
-        <v>4.4983876996349919</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="25"/>
-        <v>9.9034685459905403E-2</v>
-      </c>
-      <c r="Z69">
-        <f t="shared" si="26"/>
-        <v>1.100779791256557E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>3.3212542571842953E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>65.268343537144077</v>
       </c>
       <c r="I70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>410.09309713653334</v>
       </c>
       <c r="J70">
-        <f>$B$3*$B$4*I70/(1+$B$4^2*I70^2)</f>
+        <f t="shared" si="16"/>
         <v>1.3758587354831364E-3</v>
       </c>
       <c r="K70">
-        <f>1+($B$3*$B$4^2*I70^2)/(1+$B$4^2*I70^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663024755059797</v>
       </c>
       <c r="L70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.8983786984000207E-4</v>
       </c>
       <c r="N70">
-        <f t="shared" si="16"/>
-        <v>410.09309713653334</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="17"/>
-        <v>8.1883576365429367E-3</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="18"/>
-        <v>1.1428089233443048</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="19"/>
-        <v>3.5825576215228559E-3</v>
-      </c>
-      <c r="S70">
         <f t="shared" si="20"/>
         <v>410.09309713653334</v>
       </c>
+      <c r="O70">
+        <f t="shared" si="21"/>
+        <v>8.1883576365429367E-3</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="22"/>
+        <v>1.1428089233443048</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="23"/>
+        <v>3.5825576215228559E-3</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="24"/>
+        <v>410.09309713653334</v>
+      </c>
       <c r="T70">
-        <f t="shared" si="21"/>
-        <v>8.3057746180279224E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.134655883314389E-2</v>
       </c>
       <c r="U70">
-        <f t="shared" si="22"/>
-        <v>1.1954596535654667</v>
+        <f t="shared" si="26"/>
+        <v>1.1478584616803802</v>
       </c>
       <c r="V70">
-        <f t="shared" si="23"/>
-        <v>3.4738832855027317E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.6722179119251798E-2</v>
       </c>
       <c r="X70">
-        <f t="shared" si="24"/>
-        <v>4.5045710524157503</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="25"/>
-        <v>9.2621962552305301E-2</v>
-      </c>
-      <c r="Z70">
-        <f t="shared" si="26"/>
-        <v>1.028088595723595E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>3.0894574610614657E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>71.795177890858497</v>
       </c>
       <c r="I71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>451.10240685018681</v>
       </c>
       <c r="J71">
-        <f>$B$3*$B$4*I71/(1+$B$4^2*I71^2)</f>
+        <f t="shared" si="16"/>
         <v>1.2507955259514483E-3</v>
       </c>
       <c r="K71">
-        <f>1+($B$3*$B$4^2*I71^2)/(1+$B$4^2*I71^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663044509209262</v>
       </c>
       <c r="L71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.3622170650373792E-4</v>
       </c>
       <c r="N71">
-        <f t="shared" si="16"/>
-        <v>451.10240685018681</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="17"/>
-        <v>7.4481973571335468E-3</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="18"/>
-        <v>1.1428901865191288</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="19"/>
-        <v>3.2584921302974564E-3</v>
-      </c>
-      <c r="S71">
         <f t="shared" si="20"/>
         <v>451.10240685018681</v>
       </c>
+      <c r="O71">
+        <f t="shared" si="21"/>
+        <v>7.4481973571335468E-3</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="22"/>
+        <v>1.1428901865191288</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="23"/>
+        <v>3.2584921302974564E-3</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="24"/>
+        <v>451.10240685018681</v>
+      </c>
       <c r="T71">
-        <f t="shared" si="21"/>
-        <v>7.7566058705830318E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.7228252135686317E-2</v>
       </c>
       <c r="U71">
-        <f t="shared" si="22"/>
-        <v>1.2007896821952051</v>
+        <f t="shared" si="26"/>
+        <v>1.1517256979857635</v>
       </c>
       <c r="V71">
-        <f t="shared" si="23"/>
-        <v>3.2297936872687449E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.4844566825144208E-2</v>
       </c>
       <c r="X71">
-        <f t="shared" si="24"/>
-        <v>4.5099843196352598</v>
-      </c>
-      <c r="Y71">
-        <f t="shared" si="25"/>
-        <v>8.6265051588915315E-2</v>
-      </c>
-      <c r="Z71">
-        <f t="shared" si="26"/>
-        <v>9.5637861991382609E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>2.8639280661945404E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>78.974695679944347</v>
       </c>
       <c r="I72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>496.21264753520546</v>
       </c>
       <c r="J72">
-        <f>$B$3*$B$4*I72/(1+$B$4^2*I72^2)</f>
+        <f t="shared" si="16"/>
         <v>1.1370980045484647E-3</v>
       </c>
       <c r="K72">
-        <f>1+($B$3*$B$4^2*I72^2)/(1+$B$4^2*I72^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663060835306815</v>
       </c>
       <c r="L72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.8747838179245487E-4</v>
       </c>
       <c r="N72">
-        <f t="shared" si="16"/>
-        <v>496.21264753520546</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="17"/>
-        <v>6.7742742869676556E-3</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="18"/>
-        <v>1.1429574160003169</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="19"/>
-        <v>2.9634849873382235E-3</v>
-      </c>
-      <c r="S72">
         <f t="shared" si="20"/>
         <v>496.21264753520546</v>
       </c>
+      <c r="O72">
+        <f t="shared" si="21"/>
+        <v>6.7742742869676556E-3</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="22"/>
+        <v>1.1429574160003169</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="23"/>
+        <v>2.9634849873382235E-3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="24"/>
+        <v>496.21264753520546</v>
+      </c>
       <c r="T72">
-        <f t="shared" si="21"/>
-        <v>7.2140392950567345E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.3175100385899267E-2</v>
       </c>
       <c r="U72">
-        <f t="shared" si="22"/>
-        <v>1.2054191162633114</v>
+        <f t="shared" si="26"/>
+        <v>1.1550778123124052</v>
       </c>
       <c r="V72">
-        <f t="shared" si="23"/>
-        <v>2.9923365233411901E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.3017973256470706E-2</v>
       </c>
       <c r="X72">
-        <f t="shared" si="24"/>
-        <v>4.5146826157943103</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="25"/>
-        <v>8.0051765242083461E-2</v>
-      </c>
-      <c r="Z72">
-        <f t="shared" si="26"/>
-        <v>8.8657135013243023E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>2.6468936625601385E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>86.872165247938781</v>
       </c>
       <c r="I73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>545.83391228872597</v>
       </c>
       <c r="J73">
-        <f>$B$3*$B$4*I73/(1+$B$4^2*I73^2)</f>
+        <f t="shared" si="16"/>
         <v>1.0337338455884415E-3</v>
       </c>
       <c r="K73">
-        <f>1+($B$3*$B$4^2*I73^2)/(1+$B$4^2*I73^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663074328191352</v>
       </c>
       <c r="L73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.4316524807260979E-4</v>
       </c>
       <c r="N73">
-        <f t="shared" si="16"/>
-        <v>545.83391228872597</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="17"/>
-        <v>6.160826751647008E-3</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="18"/>
-        <v>1.1430130253197726</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="19"/>
-        <v>2.6949941143161677E-3</v>
-      </c>
-      <c r="S73">
         <f t="shared" si="20"/>
         <v>545.83391228872597</v>
       </c>
+      <c r="O73">
+        <f t="shared" si="21"/>
+        <v>6.160826751647008E-3</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="22"/>
+        <v>1.1430130253197726</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="23"/>
+        <v>2.6949941143161677E-3</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="24"/>
+        <v>545.83391228872597</v>
+      </c>
       <c r="T73">
-        <f t="shared" si="21"/>
-        <v>6.6856095390724291E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.9240069225011625E-2</v>
       </c>
       <c r="U73">
-        <f t="shared" si="22"/>
-        <v>1.209409339446317</v>
+        <f t="shared" si="26"/>
+        <v>1.1579620230882761</v>
       </c>
       <c r="V73">
-        <f t="shared" si="23"/>
-        <v>2.7639978132355032E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.1261521640273111E-2</v>
       </c>
       <c r="X73">
-        <f t="shared" si="24"/>
-        <v>4.518729797585225</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="25"/>
-        <v>7.4050655987959735E-2</v>
-      </c>
-      <c r="Z73">
-        <f t="shared" si="26"/>
-        <v>8.1937468387169154E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>2.4399681002661888E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>95.559381772732664</v>
       </c>
       <c r="I74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>600.41730351759861</v>
       </c>
       <c r="J74">
-        <f>$B$3*$B$4*I74/(1+$B$4^2*I74^2)</f>
+        <f t="shared" si="16"/>
         <v>9.3976434274554077E-4</v>
       </c>
       <c r="K74">
-        <f>1+($B$3*$B$4^2*I74^2)/(1+$B$4^2*I74^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663085479500839</v>
       </c>
       <c r="L74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.0287981443558844E-4</v>
       </c>
       <c r="N74">
-        <f t="shared" si="16"/>
-        <v>600.41730351759861</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="17"/>
-        <v>5.6025527075233466E-3</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="18"/>
-        <v>1.143059016097542</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="19"/>
-        <v>2.4506839229748298E-3</v>
-      </c>
-      <c r="S74">
         <f t="shared" si="20"/>
         <v>600.41730351759861</v>
       </c>
+      <c r="O74">
+        <f t="shared" si="21"/>
+        <v>5.6025527075233466E-3</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="22"/>
+        <v>1.143059016097542</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="23"/>
+        <v>2.4506839229748298E-3</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="24"/>
+        <v>600.41730351759861</v>
+      </c>
       <c r="T74">
-        <f t="shared" si="21"/>
-        <v>6.176989434045882E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.5462486826966214E-2</v>
       </c>
       <c r="U74">
-        <f t="shared" si="22"/>
-        <v>1.2128259505060599</v>
+        <f t="shared" si="26"/>
+        <v>1.1604279026720028</v>
       </c>
       <c r="V74">
-        <f t="shared" si="23"/>
-        <v>2.5465275670711413E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.9588673592854943E-2</v>
       </c>
       <c r="X74">
-        <f t="shared" si="24"/>
-        <v>4.5221935145536856</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="25"/>
-        <v>6.8312211390727712E-2</v>
-      </c>
-      <c r="Z74">
-        <f t="shared" si="26"/>
-        <v>7.5529951527814852E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>2.244223733026536E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:24" x14ac:dyDescent="0.35">
       <c r="H75">
         <v>100</v>
       </c>
       <c r="I75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>628.31853071795865</v>
       </c>
       <c r="J75">
-        <f>$B$3*$B$4*I75/(1+$B$4^2*I75^2)</f>
+        <f t="shared" si="16"/>
         <v>8.9803548611220251E-4</v>
       </c>
       <c r="K75">
-        <f>1+($B$3*$B$4^2*I75^2)/(1+$B$4^2*I75^2)</f>
+        <f t="shared" si="17"/>
         <v>1.1663090090900716</v>
       </c>
       <c r="L75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.8499037524061905E-4</v>
       </c>
       <c r="N75">
-        <f t="shared" si="16"/>
-        <v>628.31853071795865</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="17"/>
-        <v>5.3544767881917865E-3</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="18"/>
-        <v>1.1430780431252283</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="19"/>
-        <v>2.3421308896601667E-3</v>
-      </c>
-      <c r="S75">
         <f t="shared" si="20"/>
         <v>628.31853071795865</v>
       </c>
+      <c r="O75">
+        <f t="shared" si="21"/>
+        <v>5.3544767881917865E-3</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="22"/>
+        <v>1.1430780431252283</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="23"/>
+        <v>2.3421308896601667E-3</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="24"/>
+        <v>628.31853071795865</v>
+      </c>
       <c r="T75">
-        <f t="shared" si="21"/>
-        <v>5.9427881298123229E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.3725939008687528E-2</v>
       </c>
       <c r="U75">
-        <f t="shared" si="22"/>
-        <v>1.2142716130626143</v>
+        <f t="shared" si="26"/>
+        <v>1.1614702549182621</v>
       </c>
       <c r="V75">
-        <f t="shared" si="23"/>
-        <v>2.4470588235294112E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.8823529411764711E-2</v>
       </c>
       <c r="X75">
-        <f t="shared" si="24"/>
-        <v>4.5236586652779147</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="25"/>
-        <v>6.568039357242722E-2</v>
-      </c>
-      <c r="Z75">
-        <f t="shared" si="26"/>
-        <v>7.2596540137486358E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.1550650676665496E-2</v>
       </c>
     </row>
   </sheetData>
